--- a/أحمد كامل.XLSX
+++ b/أحمد كامل.XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57221289a36be6f3/المستندات/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ama80\Downloads\My-Github\get_cours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_0B9FA2D8288CBFF299112F82F74B356BA4B56525" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B72E9AD1-6CAB-471C-902E-32BD488E149E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0832F78B-E461-4057-9870-568E70798040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="2041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="2042">
   <si>
     <t>إسم المندوب</t>
   </si>
@@ -6160,6 +6160,9 @@
   </si>
   <si>
     <t>حازم احمد عبدالمنعم احمد</t>
+  </si>
+  <si>
+    <t>احمد كامل</t>
   </si>
 </sst>
 </file>
@@ -6170,18 +6173,18 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;_-* #,##0\-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6189,7 +6192,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6310,7 +6313,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -6332,7 +6335,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6653,28 +6656,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J1021"/>
+  <dimension ref="A1:K1021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.296875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6706,7 +6709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -6738,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -6770,7 +6773,7 @@
         <v>18631.18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -6793,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -6825,7 +6828,7 @@
         <v>13317.97</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -6857,7 +6860,7 @@
         <v>40766.49</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -6883,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -6909,7 +6912,7 @@
         <v>140.30000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -6941,7 +6944,7 @@
         <v>1178.3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -6970,7 +6973,7 @@
         <v>474.81</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -7002,7 +7005,7 @@
         <v>768.8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -7031,7 +7034,7 @@
         <v>2851.02</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -7057,7 +7060,7 @@
         <v>1105.48</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -7086,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -7112,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -7141,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -7167,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -7193,7 +7196,7 @@
         <v>68.650000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -7225,7 +7228,7 @@
         <v>12495.52</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -7254,7 +7257,7 @@
         <v>538.79999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -7280,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -7309,7 +7312,7 @@
         <v>68.25</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -7331,8 +7334,11 @@
       <c r="J23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1">
+      <c r="K23" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -7361,7 +7367,7 @@
         <v>1645.86</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -7387,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -7416,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -7442,7 +7448,7 @@
         <v>4955.99</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -7465,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
@@ -7491,7 +7497,7 @@
         <v>74.41</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -7520,7 +7526,7 @@
         <v>9122.24</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -7549,7 +7555,7 @@
         <v>4809</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -7575,7 +7581,7 @@
         <v>200.26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -7604,7 +7610,7 @@
         <v>6333.02</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -7636,7 +7642,7 @@
         <v>2984.36</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -7665,7 +7671,7 @@
         <v>901.25</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -7697,7 +7703,7 @@
         <v>2679.54</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>91</v>
       </c>
@@ -7726,7 +7732,7 @@
         <v>1036.83</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -7758,7 +7764,7 @@
         <v>12162.04</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -7787,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -7813,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
@@ -7839,7 +7845,7 @@
         <v>3068.54</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
@@ -7871,7 +7877,7 @@
         <v>5643.03</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
@@ -7903,7 +7909,7 @@
         <v>1951.64</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>24</v>
       </c>
@@ -7926,7 +7932,7 @@
         <v>206.84</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
@@ -7955,7 +7961,7 @@
         <v>3320.38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -7981,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -8007,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
@@ -8039,7 +8045,7 @@
         <v>6237.04</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -8065,7 +8071,7 @@
         <v>1453.46</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -8094,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
@@ -8120,7 +8126,7 @@
         <v>4749.72</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -8149,7 +8155,7 @@
         <v>4713.0600000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -8178,7 +8184,7 @@
         <v>9858.7000000000007</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -8201,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
@@ -8233,7 +8239,7 @@
         <v>2718.94</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
@@ -8259,7 +8265,7 @@
         <v>3432.16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -8288,7 +8294,7 @@
         <v>6377.9</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
@@ -8317,7 +8323,7 @@
         <v>328.31</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
@@ -8346,7 +8352,7 @@
         <v>1767.72</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>91</v>
       </c>
@@ -8375,7 +8381,7 @@
         <v>2475.67</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
@@ -8404,7 +8410,7 @@
         <v>5359.78</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>142</v>
       </c>
@@ -8430,7 +8436,7 @@
         <v>9101.31</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -8456,7 +8462,7 @@
         <v>283.68</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
@@ -8485,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>16</v>
       </c>
@@ -8514,7 +8520,7 @@
         <v>5939.66</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>21</v>
       </c>
@@ -8543,7 +8549,7 @@
         <v>7982.45</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>153</v>
       </c>
@@ -8569,7 +8575,7 @@
         <v>622.24</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -8598,7 +8604,7 @@
         <v>3414.41</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>91</v>
       </c>
@@ -8627,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>29</v>
       </c>
@@ -8653,7 +8659,7 @@
         <v>291.7</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>162</v>
       </c>
@@ -8682,7 +8688,7 @@
         <v>10502.77</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
@@ -8711,7 +8717,7 @@
         <v>4348.66</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>21</v>
       </c>
@@ -8737,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
@@ -8766,7 +8772,7 @@
         <v>2847.17</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>29</v>
       </c>
@@ -8798,7 +8804,7 @@
         <v>7137.87</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>29</v>
       </c>
@@ -8821,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>175</v>
       </c>
@@ -8850,7 +8856,7 @@
         <v>3444.47</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>39</v>
       </c>
@@ -8879,7 +8885,7 @@
         <v>2034.54</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>180</v>
       </c>
@@ -8905,7 +8911,7 @@
         <v>7647.68</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
@@ -8928,7 +8934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>180</v>
       </c>
@@ -8957,7 +8963,7 @@
         <v>2507.4</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -8983,7 +8989,7 @@
         <v>11865.08</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -9012,7 +9018,7 @@
         <v>5135.54</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
@@ -9041,7 +9047,7 @@
         <v>47.28</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>21</v>
       </c>
@@ -9067,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>29</v>
       </c>
@@ -9099,7 +9105,7 @@
         <v>2371.4299999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>21</v>
       </c>
@@ -9125,7 +9131,7 @@
         <v>2527.61</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>21</v>
       </c>
@@ -9151,7 +9157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>24</v>
       </c>
@@ -9180,7 +9186,7 @@
         <v>3678.12</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -9209,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>10</v>
       </c>
@@ -9232,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>24</v>
       </c>
@@ -9258,7 +9264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>180</v>
       </c>
@@ -9284,7 +9290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>39</v>
       </c>
@@ -9313,7 +9319,7 @@
         <v>47.28</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>10</v>
       </c>
@@ -9339,7 +9345,7 @@
         <v>1937.98</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>215</v>
       </c>
@@ -9365,7 +9371,7 @@
         <v>2564.48</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>21</v>
       </c>
@@ -9394,7 +9400,7 @@
         <v>2858.75</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>175</v>
       </c>
@@ -9423,7 +9429,7 @@
         <v>1778.51</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -9449,7 +9455,7 @@
         <v>1947.71</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>215</v>
       </c>
@@ -9475,7 +9481,7 @@
         <v>621.14</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>24</v>
       </c>
@@ -9507,7 +9513,7 @@
         <v>2563.35</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>24</v>
       </c>
@@ -9527,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>24</v>
       </c>
@@ -9553,7 +9559,7 @@
         <v>766.72</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>39</v>
       </c>
@@ -9573,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>16</v>
       </c>
@@ -9602,7 +9608,7 @@
         <v>7042.54</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>142</v>
       </c>
@@ -9628,7 +9634,7 @@
         <v>551.4</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>10</v>
       </c>
@@ -9654,7 +9660,7 @@
         <v>2297.8200000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>21</v>
       </c>
@@ -9677,7 +9683,7 @@
         <v>376.82</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
@@ -9706,7 +9712,7 @@
         <v>277.39999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>215</v>
       </c>
@@ -9732,7 +9738,7 @@
         <v>517.94000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>29</v>
       </c>
@@ -9761,7 +9767,7 @@
         <v>11322.97</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>68</v>
       </c>
@@ -9787,7 +9793,7 @@
         <v>5836.56</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>215</v>
       </c>
@@ -9816,7 +9822,7 @@
         <v>900.2</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>32</v>
       </c>
@@ -9842,7 +9848,7 @@
         <v>3673.9</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>21</v>
       </c>
@@ -9871,7 +9877,7 @@
         <v>4726.43</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>10</v>
       </c>
@@ -9897,7 +9903,7 @@
         <v>8936.56</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>21</v>
       </c>
@@ -9920,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>68</v>
       </c>
@@ -9949,7 +9955,7 @@
         <v>2084.25</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>68</v>
       </c>
@@ -9978,7 +9984,7 @@
         <v>6686.81</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>10</v>
       </c>
@@ -10004,7 +10010,7 @@
         <v>5284.05</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>13</v>
       </c>
@@ -10027,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>39</v>
       </c>
@@ -10053,7 +10059,7 @@
         <v>12200.08</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>24</v>
       </c>
@@ -10079,7 +10085,7 @@
         <v>1508.14</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>175</v>
       </c>
@@ -10108,7 +10114,7 @@
         <v>7686.46</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>24</v>
       </c>
@@ -10137,7 +10143,7 @@
         <v>1906.92</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
@@ -10163,7 +10169,7 @@
         <v>10690.87</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>21</v>
       </c>
@@ -10189,7 +10195,7 @@
         <v>2835.46</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>21</v>
       </c>
@@ -10218,7 +10224,7 @@
         <v>5087.8</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>91</v>
       </c>
@@ -10241,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>39</v>
       </c>
@@ -10267,7 +10273,7 @@
         <v>1454.24</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>68</v>
       </c>
@@ -10293,7 +10299,7 @@
         <v>2946.65</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>24</v>
       </c>
@@ -10319,7 +10325,7 @@
         <v>2373.6999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>32</v>
       </c>
@@ -10345,7 +10351,7 @@
         <v>1550.56</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>175</v>
       </c>
@@ -10374,7 +10380,7 @@
         <v>9203.42</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>29</v>
       </c>
@@ -10403,7 +10409,7 @@
         <v>3182.53</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>13</v>
       </c>
@@ -10432,7 +10438,7 @@
         <v>656.94</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>16</v>
       </c>
@@ -10461,7 +10467,7 @@
         <v>2411.6</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>24</v>
       </c>
@@ -10487,7 +10493,7 @@
         <v>626.30999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>16</v>
       </c>
@@ -10516,7 +10522,7 @@
         <v>1405.67</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>16</v>
       </c>
@@ -10545,7 +10551,7 @@
         <v>7433.23</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>24</v>
       </c>
@@ -10574,7 +10580,7 @@
         <v>4533.87</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>10</v>
       </c>
@@ -10603,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>91</v>
       </c>
@@ -10629,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>10</v>
       </c>
@@ -10658,7 +10664,7 @@
         <v>1287.19</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>24</v>
       </c>
@@ -10684,7 +10690,7 @@
         <v>8735.73</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>16</v>
       </c>
@@ -10713,7 +10719,7 @@
         <v>233.04</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>175</v>
       </c>
@@ -10742,7 +10748,7 @@
         <v>6453.06</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>13</v>
       </c>
@@ -10768,7 +10774,7 @@
         <v>2347.1799999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>68</v>
       </c>
@@ -10797,7 +10803,7 @@
         <v>7073.41</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>65</v>
       </c>
@@ -10823,7 +10829,7 @@
         <v>2532.2399999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>162</v>
       </c>
@@ -10849,7 +10855,7 @@
         <v>4532.8599999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>175</v>
       </c>
@@ -10875,7 +10881,7 @@
         <v>3293.12</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>142</v>
       </c>
@@ -10904,7 +10910,7 @@
         <v>3653.36</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>13</v>
       </c>
@@ -10930,7 +10936,7 @@
         <v>1035.42</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>32</v>
       </c>
@@ -10959,7 +10965,7 @@
         <v>1903.21</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>39</v>
       </c>
@@ -10985,7 +10991,7 @@
         <v>299.26</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>21</v>
       </c>
@@ -11011,7 +11017,7 @@
         <v>5922.08</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>21</v>
       </c>
@@ -11037,7 +11043,7 @@
         <v>5106.41</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>180</v>
       </c>
@@ -11066,7 +11072,7 @@
         <v>3606.19</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>32</v>
       </c>
@@ -11092,7 +11098,7 @@
         <v>3299.34</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>16</v>
       </c>
@@ -11118,7 +11124,7 @@
         <v>2383.94</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>91</v>
       </c>
@@ -11144,7 +11150,7 @@
         <v>696.16</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>24</v>
       </c>
@@ -11170,7 +11176,7 @@
         <v>1990.58</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>215</v>
       </c>
@@ -11196,7 +11202,7 @@
         <v>6720.77</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>62</v>
       </c>
@@ -11225,7 +11231,7 @@
         <v>1564.69</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>13</v>
       </c>
@@ -11248,7 +11254,7 @@
         <v>5643.28</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>21</v>
       </c>
@@ -11277,7 +11283,7 @@
         <v>3700.74</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>29</v>
       </c>
@@ -11303,7 +11309,7 @@
         <v>6699.12</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>175</v>
       </c>
@@ -11329,7 +11335,7 @@
         <v>1772.92</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>91</v>
       </c>
@@ -11355,7 +11361,7 @@
         <v>606.69000000000005</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>91</v>
       </c>
@@ -11378,7 +11384,7 @@
         <v>686.5</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>65</v>
       </c>
@@ -11407,7 +11413,7 @@
         <v>765.84</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>10</v>
       </c>
@@ -11433,7 +11439,7 @@
         <v>7917.97</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>39</v>
       </c>
@@ -11462,7 +11468,7 @@
         <v>5373.54</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>21</v>
       </c>
@@ -11491,7 +11497,7 @@
         <v>825.07</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>10</v>
       </c>
@@ -11517,7 +11523,7 @@
         <v>3242.79</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>32</v>
       </c>
@@ -11543,7 +11549,7 @@
         <v>3274.87</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>13</v>
       </c>
@@ -11569,7 +11575,7 @@
         <v>197.56</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>10</v>
       </c>
@@ -11595,7 +11601,7 @@
         <v>670.78</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>29</v>
       </c>
@@ -11627,7 +11633,7 @@
         <v>1356.17</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>91</v>
       </c>
@@ -11656,7 +11662,7 @@
         <v>2009.45</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>68</v>
       </c>
@@ -11685,7 +11691,7 @@
         <v>4700.8500000000004</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>21</v>
       </c>
@@ -11711,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>10</v>
       </c>
@@ -11737,7 +11743,7 @@
         <v>422.97</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>68</v>
       </c>
@@ -11763,7 +11769,7 @@
         <v>4867.51</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>215</v>
       </c>
@@ -11789,7 +11795,7 @@
         <v>2371.02</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>10</v>
       </c>
@@ -11815,7 +11821,7 @@
         <v>1214.1600000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>29</v>
       </c>
@@ -11841,7 +11847,7 @@
         <v>1061.32</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>24</v>
       </c>
@@ -11870,7 +11876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>65</v>
       </c>
@@ -11896,7 +11902,7 @@
         <v>151.84</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>162</v>
       </c>
@@ -11922,7 +11928,7 @@
         <v>9466.42</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>29</v>
       </c>
@@ -11951,7 +11957,7 @@
         <v>1826.79</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>16</v>
       </c>
@@ -11980,7 +11986,7 @@
         <v>857.92</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>24</v>
       </c>
@@ -12006,7 +12012,7 @@
         <v>1931.58</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>16</v>
       </c>
@@ -12035,7 +12041,7 @@
         <v>1952.19</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>29</v>
       </c>
@@ -12064,7 +12070,7 @@
         <v>3823.77</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>39</v>
       </c>
@@ -12090,7 +12096,7 @@
         <v>5808.22</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>21</v>
       </c>
@@ -12119,7 +12125,7 @@
         <v>3208.9</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>21</v>
       </c>
@@ -12145,7 +12151,7 @@
         <v>4932.8999999999996</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>13</v>
       </c>
@@ -12171,7 +12177,7 @@
         <v>1307.93</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>68</v>
       </c>
@@ -12197,7 +12203,7 @@
         <v>1108.31</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>16</v>
       </c>
@@ -12226,7 +12232,7 @@
         <v>2962.82</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>16</v>
       </c>
@@ -12252,7 +12258,7 @@
         <v>4690.3500000000004</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>21</v>
       </c>
@@ -12281,7 +12287,7 @@
         <v>3365.96</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>29</v>
       </c>
@@ -12307,7 +12313,7 @@
         <v>1369.33</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>16</v>
       </c>
@@ -12336,7 +12342,7 @@
         <v>3573.2</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>13</v>
       </c>
@@ -12362,7 +12368,7 @@
         <v>3163.56</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>21</v>
       </c>
@@ -12388,7 +12394,7 @@
         <v>5040.42</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>65</v>
       </c>
@@ -12420,7 +12426,7 @@
         <v>8597.0300000000007</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>32</v>
       </c>
@@ -12446,7 +12452,7 @@
         <v>10149.450000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>10</v>
       </c>
@@ -12472,7 +12478,7 @@
         <v>513.94000000000005</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>39</v>
       </c>
@@ -12498,7 +12504,7 @@
         <v>462.22</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>32</v>
       </c>
@@ -12524,7 +12530,7 @@
         <v>70.73</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>68</v>
       </c>
@@ -12550,7 +12556,7 @@
         <v>3815.54</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>21</v>
       </c>
@@ -12576,7 +12582,7 @@
         <v>750.64</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>29</v>
       </c>
@@ -12602,7 +12608,7 @@
         <v>844.49</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>24</v>
       </c>
@@ -12628,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>24</v>
       </c>
@@ -12654,7 +12660,7 @@
         <v>74.41</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>29</v>
       </c>
@@ -12680,7 +12686,7 @@
         <v>1868.22</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>29</v>
       </c>
@@ -12706,7 +12712,7 @@
         <v>1519.85</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>62</v>
       </c>
@@ -12732,7 +12738,7 @@
         <v>3256.28</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>68</v>
       </c>
@@ -12758,7 +12764,7 @@
         <v>3149.25</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>21</v>
       </c>
@@ -12787,7 +12793,7 @@
         <v>420.77</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>39</v>
       </c>
@@ -12816,7 +12822,7 @@
         <v>509.98</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>91</v>
       </c>
@@ -12845,7 +12851,7 @@
         <v>1935.02</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>21</v>
       </c>
@@ -12874,7 +12880,7 @@
         <v>2775.81</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>32</v>
       </c>
@@ -12900,7 +12906,7 @@
         <v>2543.5</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>16</v>
       </c>
@@ -12926,7 +12932,7 @@
         <v>2385.85</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>91</v>
       </c>
@@ -12952,7 +12958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>24</v>
       </c>
@@ -12981,7 +12987,7 @@
         <v>2104.8000000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>10</v>
       </c>
@@ -13010,7 +13016,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>68</v>
       </c>
@@ -13036,7 +13042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>13</v>
       </c>
@@ -13065,7 +13071,7 @@
         <v>1496.38</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>13</v>
       </c>
@@ -13094,7 +13100,7 @@
         <v>919.87</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>39</v>
       </c>
@@ -13120,7 +13126,7 @@
         <v>852.31</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>62</v>
       </c>
@@ -13146,7 +13152,7 @@
         <v>3319.14</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>21</v>
       </c>
@@ -13172,7 +13178,7 @@
         <v>4378.8599999999997</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>91</v>
       </c>
@@ -13198,7 +13204,7 @@
         <v>187.7</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>13</v>
       </c>
@@ -13230,7 +13236,7 @@
         <v>2879.33</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>21</v>
       </c>
@@ -13256,7 +13262,7 @@
         <v>14809.2</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>13</v>
       </c>
@@ -13282,7 +13288,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>180</v>
       </c>
@@ -13308,7 +13314,7 @@
         <v>4530.71</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>29</v>
       </c>
@@ -13334,7 +13340,7 @@
         <v>3671.19</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>16</v>
       </c>
@@ -13360,7 +13366,7 @@
         <v>1511.19</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>215</v>
       </c>
@@ -13386,7 +13392,7 @@
         <v>3348.23</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>68</v>
       </c>
@@ -13412,7 +13418,7 @@
         <v>2201.11</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>21</v>
       </c>
@@ -13438,7 +13444,7 @@
         <v>4945.6000000000004</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>32</v>
       </c>
@@ -13464,7 +13470,7 @@
         <v>1812.5</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>13</v>
       </c>
@@ -13493,7 +13499,7 @@
         <v>1779.54</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>142</v>
       </c>
@@ -13519,7 +13525,7 @@
         <v>2600.4699999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>91</v>
       </c>
@@ -13545,7 +13551,7 @@
         <v>1414.57</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>39</v>
       </c>
@@ -13574,7 +13580,7 @@
         <v>2251.3000000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>21</v>
       </c>
@@ -13600,7 +13606,7 @@
         <v>1246.6300000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>24</v>
       </c>
@@ -13626,7 +13632,7 @@
         <v>1187.67</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>29</v>
       </c>
@@ -13655,7 +13661,7 @@
         <v>2230.91</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>29</v>
       </c>
@@ -13681,7 +13687,7 @@
         <v>643.79</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>16</v>
       </c>
@@ -13710,7 +13716,7 @@
         <v>1158.93</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>21</v>
       </c>
@@ -13736,7 +13742,7 @@
         <v>2290.9</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>39</v>
       </c>
@@ -13762,7 +13768,7 @@
         <v>3803.63</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>39</v>
       </c>
@@ -13788,7 +13794,7 @@
         <v>90.42</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>39</v>
       </c>
@@ -13814,7 +13820,7 @@
         <v>2825.43</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>24</v>
       </c>
@@ -13843,7 +13849,7 @@
         <v>899.37</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>29</v>
       </c>
@@ -13869,7 +13875,7 @@
         <v>413.54</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>175</v>
       </c>
@@ -13898,7 +13904,7 @@
         <v>1928.22</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>32</v>
       </c>
@@ -13927,7 +13933,7 @@
         <v>3548.8</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>21</v>
       </c>
@@ -13956,7 +13962,7 @@
         <v>2020.46</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>10</v>
       </c>
@@ -13982,7 +13988,7 @@
         <v>419.27</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>62</v>
       </c>
@@ -14011,7 +14017,7 @@
         <v>1337.66</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>32</v>
       </c>
@@ -14037,7 +14043,7 @@
         <v>2750.89</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>16</v>
       </c>
@@ -14063,7 +14069,7 @@
         <v>2455.5300000000002</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>32</v>
       </c>
@@ -14095,7 +14101,7 @@
         <v>2436.33</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>16</v>
       </c>
@@ -14121,7 +14127,7 @@
         <v>1275.53</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>91</v>
       </c>
@@ -14147,7 +14153,7 @@
         <v>161.02000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>162</v>
       </c>
@@ -14173,7 +14179,7 @@
         <v>1096.8800000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>91</v>
       </c>
@@ -14199,7 +14205,7 @@
         <v>349.16</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>21</v>
       </c>
@@ -14228,7 +14234,7 @@
         <v>890.26</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>180</v>
       </c>
@@ -14254,7 +14260,7 @@
         <v>846.9</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>180</v>
       </c>
@@ -14280,7 +14286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>24</v>
       </c>
@@ -14306,7 +14312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>68</v>
       </c>
@@ -14332,7 +14338,7 @@
         <v>1859.8</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>39</v>
       </c>
@@ -14361,7 +14367,7 @@
         <v>709.78</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>13</v>
       </c>
@@ -14390,7 +14396,7 @@
         <v>407.82</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>21</v>
       </c>
@@ -14419,7 +14425,7 @@
         <v>2285.66</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>24</v>
       </c>
@@ -14439,7 +14445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>10</v>
       </c>
@@ -14468,7 +14474,7 @@
         <v>1902.96</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>32</v>
       </c>
@@ -14494,7 +14500,7 @@
         <v>2166.92</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>65</v>
       </c>
@@ -14517,7 +14523,7 @@
         <v>357.1</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>68</v>
       </c>
@@ -14543,7 +14549,7 @@
         <v>1506.28</v>
       </c>
     </row>
-    <row r="289" spans="1:10" hidden="1">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>21</v>
       </c>
@@ -14572,7 +14578,7 @@
         <v>3771.64</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>10</v>
       </c>
@@ -14598,7 +14604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>68</v>
       </c>
@@ -14624,7 +14630,7 @@
         <v>799.37</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>65</v>
       </c>
@@ -14650,7 +14656,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>16</v>
       </c>
@@ -14676,7 +14682,7 @@
         <v>3099.93</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>215</v>
       </c>
@@ -14699,7 +14705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>39</v>
       </c>
@@ -14725,7 +14731,7 @@
         <v>477.8</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>39</v>
       </c>
@@ -14751,7 +14757,7 @@
         <v>2904.88</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>16</v>
       </c>
@@ -14777,7 +14783,7 @@
         <v>2678.64</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>29</v>
       </c>
@@ -14803,7 +14809,7 @@
         <v>3434.64</v>
       </c>
     </row>
-    <row r="299" spans="1:10" hidden="1">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>29</v>
       </c>
@@ -14829,7 +14835,7 @@
         <v>1886.23</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>91</v>
       </c>
@@ -14855,7 +14861,7 @@
         <v>1423.96</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>21</v>
       </c>
@@ -14884,7 +14890,7 @@
         <v>3888.16</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>21</v>
       </c>
@@ -14907,7 +14913,7 @@
         <v>250.82</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>16</v>
       </c>
@@ -14933,7 +14939,7 @@
         <v>3682.2</v>
       </c>
     </row>
-    <row r="304" spans="1:10" hidden="1">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>32</v>
       </c>
@@ -14959,7 +14965,7 @@
         <v>3850.58</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>39</v>
       </c>
@@ -14985,7 +14991,7 @@
         <v>1632.7</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>32</v>
       </c>
@@ -15014,7 +15020,7 @@
         <v>1755.38</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>180</v>
       </c>
@@ -15040,7 +15046,7 @@
         <v>3295.79</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>21</v>
       </c>
@@ -15066,7 +15072,7 @@
         <v>5055.67</v>
       </c>
     </row>
-    <row r="309" spans="1:10" hidden="1">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>91</v>
       </c>
@@ -15095,7 +15101,7 @@
         <v>197.98</v>
       </c>
     </row>
-    <row r="310" spans="1:10" hidden="1">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>68</v>
       </c>
@@ -15121,7 +15127,7 @@
         <v>2156.5</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>21</v>
       </c>
@@ -15147,7 +15153,7 @@
         <v>819.61</v>
       </c>
     </row>
-    <row r="312" spans="1:10" hidden="1">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>21</v>
       </c>
@@ -15173,7 +15179,7 @@
         <v>1160.04</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>180</v>
       </c>
@@ -15199,7 +15205,7 @@
         <v>3576.71</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>16</v>
       </c>
@@ -15225,7 +15231,7 @@
         <v>1513.08</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>16</v>
       </c>
@@ -15254,7 +15260,7 @@
         <v>1394.25</v>
       </c>
     </row>
-    <row r="316" spans="1:10" hidden="1">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>21</v>
       </c>
@@ -15280,7 +15286,7 @@
         <v>2763.26</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>68</v>
       </c>
@@ -15306,7 +15312,7 @@
         <v>1794.13</v>
       </c>
     </row>
-    <row r="318" spans="1:10" hidden="1">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>24</v>
       </c>
@@ -15332,7 +15338,7 @@
         <v>2484.8200000000002</v>
       </c>
     </row>
-    <row r="319" spans="1:10" hidden="1">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>65</v>
       </c>
@@ -15358,7 +15364,7 @@
         <v>777.82</v>
       </c>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>39</v>
       </c>
@@ -15387,7 +15393,7 @@
         <v>3633.82</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>29</v>
       </c>
@@ -15416,7 +15422,7 @@
         <v>1232.6300000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:10" hidden="1">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>62</v>
       </c>
@@ -15445,7 +15451,7 @@
         <v>1820.02</v>
       </c>
     </row>
-    <row r="323" spans="1:10" hidden="1">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>62</v>
       </c>
@@ -15471,7 +15477,7 @@
         <v>1365.88</v>
       </c>
     </row>
-    <row r="324" spans="1:10" hidden="1">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>65</v>
       </c>
@@ -15497,7 +15503,7 @@
         <v>1154.42</v>
       </c>
     </row>
-    <row r="325" spans="1:10" hidden="1">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>65</v>
       </c>
@@ -15523,7 +15529,7 @@
         <v>522.1</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>142</v>
       </c>
@@ -15552,7 +15558,7 @@
         <v>1114.99</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>21</v>
       </c>
@@ -15578,7 +15584,7 @@
         <v>1631.28</v>
       </c>
     </row>
-    <row r="328" spans="1:10" hidden="1">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>16</v>
       </c>
@@ -15604,7 +15610,7 @@
         <v>8512.6299999999992</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>29</v>
       </c>
@@ -15633,7 +15639,7 @@
         <v>1823.08</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>62</v>
       </c>
@@ -15662,7 +15668,7 @@
         <v>961.47</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>65</v>
       </c>
@@ -15688,7 +15694,7 @@
         <v>2684.04</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>16</v>
       </c>
@@ -15714,7 +15720,7 @@
         <v>856.88</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>142</v>
       </c>
@@ -15740,7 +15746,7 @@
         <v>2623.76</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>68</v>
       </c>
@@ -15769,7 +15775,7 @@
         <v>1025.99</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>16</v>
       </c>
@@ -15795,7 +15801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>68</v>
       </c>
@@ -15821,7 +15827,7 @@
         <v>2711.03</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>24</v>
       </c>
@@ -15847,7 +15853,7 @@
         <v>1147.72</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>215</v>
       </c>
@@ -15873,7 +15879,7 @@
         <v>9815.18</v>
       </c>
     </row>
-    <row r="339" spans="1:10" hidden="1">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>180</v>
       </c>
@@ -15899,7 +15905,7 @@
         <v>449.86</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>16</v>
       </c>
@@ -15925,7 +15931,7 @@
         <v>1301.7</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>13</v>
       </c>
@@ -15951,7 +15957,7 @@
         <v>1576.24</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>65</v>
       </c>
@@ -15977,7 +15983,7 @@
         <v>2095.96</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>13</v>
       </c>
@@ -16006,7 +16012,7 @@
         <v>3618.5</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>29</v>
       </c>
@@ -16032,7 +16038,7 @@
         <v>1233.43</v>
       </c>
     </row>
-    <row r="345" spans="1:10" hidden="1">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>91</v>
       </c>
@@ -16058,7 +16064,7 @@
         <v>526.27</v>
       </c>
     </row>
-    <row r="346" spans="1:10" hidden="1">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>215</v>
       </c>
@@ -16084,7 +16090,7 @@
         <v>2737.23</v>
       </c>
     </row>
-    <row r="347" spans="1:10" hidden="1">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>162</v>
       </c>
@@ -16110,7 +16116,7 @@
         <v>2301.98</v>
       </c>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>39</v>
       </c>
@@ -16136,7 +16142,7 @@
         <v>2135.46</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>29</v>
       </c>
@@ -16165,7 +16171,7 @@
         <v>1911.68</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>62</v>
       </c>
@@ -16191,7 +16197,7 @@
         <v>2847.1</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>13</v>
       </c>
@@ -16217,7 +16223,7 @@
         <v>1258.3</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>13</v>
       </c>
@@ -16243,7 +16249,7 @@
         <v>47.28</v>
       </c>
     </row>
-    <row r="353" spans="1:10" hidden="1">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>142</v>
       </c>
@@ -16269,7 +16275,7 @@
         <v>1708.54</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>10</v>
       </c>
@@ -16298,7 +16304,7 @@
         <v>1735.92</v>
       </c>
     </row>
-    <row r="355" spans="1:10" hidden="1">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>16</v>
       </c>
@@ -16324,7 +16330,7 @@
         <v>1958.03</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>68</v>
       </c>
@@ -16350,7 +16356,7 @@
         <v>708.13</v>
       </c>
     </row>
-    <row r="357" spans="1:10" hidden="1">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>175</v>
       </c>
@@ -16376,7 +16382,7 @@
         <v>972.9</v>
       </c>
     </row>
-    <row r="358" spans="1:10" hidden="1">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>13</v>
       </c>
@@ -16402,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:10" hidden="1">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>21</v>
       </c>
@@ -16425,7 +16431,7 @@
         <v>1893.66</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>16</v>
       </c>
@@ -16451,7 +16457,7 @@
         <v>2063.9899999999998</v>
       </c>
     </row>
-    <row r="361" spans="1:10" hidden="1">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>215</v>
       </c>
@@ -16477,7 +16483,7 @@
         <v>1851.74</v>
       </c>
     </row>
-    <row r="362" spans="1:10" hidden="1">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>21</v>
       </c>
@@ -16506,7 +16512,7 @@
         <v>1674.58</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>32</v>
       </c>
@@ -16535,7 +16541,7 @@
         <v>94.56</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>21</v>
       </c>
@@ -16558,7 +16564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>24</v>
       </c>
@@ -16584,7 +16590,7 @@
         <v>1625.72</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>21</v>
       </c>
@@ -16610,7 +16616,7 @@
         <v>1012.93</v>
       </c>
     </row>
-    <row r="367" spans="1:10" hidden="1">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>142</v>
       </c>
@@ -16639,7 +16645,7 @@
         <v>1938.35</v>
       </c>
     </row>
-    <row r="368" spans="1:10" hidden="1">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>29</v>
       </c>
@@ -16665,7 +16671,7 @@
         <v>2728.91</v>
       </c>
     </row>
-    <row r="369" spans="1:10" hidden="1">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>68</v>
       </c>
@@ -16691,7 +16697,7 @@
         <v>1833.9</v>
       </c>
     </row>
-    <row r="370" spans="1:10" hidden="1">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>62</v>
       </c>
@@ -16717,7 +16723,7 @@
         <v>1840.39</v>
       </c>
     </row>
-    <row r="371" spans="1:10" hidden="1">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>16</v>
       </c>
@@ -16743,7 +16749,7 @@
         <v>179.8</v>
       </c>
     </row>
-    <row r="372" spans="1:10" hidden="1">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>62</v>
       </c>
@@ -16772,7 +16778,7 @@
         <v>1646.91</v>
       </c>
     </row>
-    <row r="373" spans="1:10" hidden="1">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>65</v>
       </c>
@@ -16798,7 +16804,7 @@
         <v>53.42</v>
       </c>
     </row>
-    <row r="374" spans="1:10" hidden="1">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>65</v>
       </c>
@@ -16824,7 +16830,7 @@
         <v>2284.7800000000002</v>
       </c>
     </row>
-    <row r="375" spans="1:10" hidden="1">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>215</v>
       </c>
@@ -16850,7 +16856,7 @@
         <v>2596.75</v>
       </c>
     </row>
-    <row r="376" spans="1:10" hidden="1">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>180</v>
       </c>
@@ -16876,7 +16882,7 @@
         <v>3054.65</v>
       </c>
     </row>
-    <row r="377" spans="1:10" hidden="1">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>68</v>
       </c>
@@ -16905,7 +16911,7 @@
         <v>1704.8</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>16</v>
       </c>
@@ -16934,7 +16940,7 @@
         <v>576.91</v>
       </c>
     </row>
-    <row r="379" spans="1:10" hidden="1">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>68</v>
       </c>
@@ -16960,7 +16966,7 @@
         <v>3588.18</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>215</v>
       </c>
@@ -16986,7 +16992,7 @@
         <v>734.64</v>
       </c>
     </row>
-    <row r="381" spans="1:10" hidden="1">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>65</v>
       </c>
@@ -17012,7 +17018,7 @@
         <v>94.56</v>
       </c>
     </row>
-    <row r="382" spans="1:10" hidden="1">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>91</v>
       </c>
@@ -17041,7 +17047,7 @@
         <v>1297.27</v>
       </c>
     </row>
-    <row r="383" spans="1:10" hidden="1">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>21</v>
       </c>
@@ -17067,7 +17073,7 @@
         <v>2904.9</v>
       </c>
     </row>
-    <row r="384" spans="1:10" hidden="1">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>24</v>
       </c>
@@ -17093,7 +17099,7 @@
         <v>2675.14</v>
       </c>
     </row>
-    <row r="385" spans="1:10" hidden="1">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>10</v>
       </c>
@@ -17116,7 +17122,7 @@
         <v>2598.0300000000002</v>
       </c>
     </row>
-    <row r="386" spans="1:10" hidden="1">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>153</v>
       </c>
@@ -17142,7 +17148,7 @@
         <v>872.18</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>10</v>
       </c>
@@ -17162,7 +17168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>24</v>
       </c>
@@ -17185,7 +17191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:10" hidden="1">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>24</v>
       </c>
@@ -17211,7 +17217,7 @@
         <v>710.2</v>
       </c>
     </row>
-    <row r="390" spans="1:10">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>39</v>
       </c>
@@ -17237,7 +17243,7 @@
         <v>2427.64</v>
       </c>
     </row>
-    <row r="391" spans="1:10" hidden="1">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>68</v>
       </c>
@@ -17263,7 +17269,7 @@
         <v>1487.17</v>
       </c>
     </row>
-    <row r="392" spans="1:10" hidden="1">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>13</v>
       </c>
@@ -17289,7 +17295,7 @@
         <v>752.84</v>
       </c>
     </row>
-    <row r="393" spans="1:10" hidden="1">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>16</v>
       </c>
@@ -17315,7 +17321,7 @@
         <v>236.12</v>
       </c>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>39</v>
       </c>
@@ -17341,7 +17347,7 @@
         <v>921.67</v>
       </c>
     </row>
-    <row r="395" spans="1:10" hidden="1">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>215</v>
       </c>
@@ -17367,7 +17373,7 @@
         <v>989.57</v>
       </c>
     </row>
-    <row r="396" spans="1:10" hidden="1">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>62</v>
       </c>
@@ -17393,7 +17399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:10" hidden="1">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>16</v>
       </c>
@@ -17419,7 +17425,7 @@
         <v>2018.46</v>
       </c>
     </row>
-    <row r="398" spans="1:10" hidden="1">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>91</v>
       </c>
@@ -17448,7 +17454,7 @@
         <v>312.54000000000002</v>
       </c>
     </row>
-    <row r="399" spans="1:10" hidden="1">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>16</v>
       </c>
@@ -17477,7 +17483,7 @@
         <v>1376.17</v>
       </c>
     </row>
-    <row r="400" spans="1:10" hidden="1">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>65</v>
       </c>
@@ -17503,7 +17509,7 @@
         <v>2333.58</v>
       </c>
     </row>
-    <row r="401" spans="1:10" hidden="1">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>162</v>
       </c>
@@ -17532,7 +17538,7 @@
         <v>194.12</v>
       </c>
     </row>
-    <row r="402" spans="1:10" hidden="1">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>29</v>
       </c>
@@ -17558,7 +17564,7 @@
         <v>710.08</v>
       </c>
     </row>
-    <row r="403" spans="1:10" hidden="1">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>32</v>
       </c>
@@ -17584,7 +17590,7 @@
         <v>987.69</v>
       </c>
     </row>
-    <row r="404" spans="1:10" hidden="1">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>16</v>
       </c>
@@ -17613,7 +17619,7 @@
         <v>104.56</v>
       </c>
     </row>
-    <row r="405" spans="1:10" hidden="1">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>180</v>
       </c>
@@ -17636,7 +17642,7 @@
         <v>974.93</v>
       </c>
     </row>
-    <row r="406" spans="1:10" hidden="1">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>91</v>
       </c>
@@ -17662,7 +17668,7 @@
         <v>1079.2</v>
       </c>
     </row>
-    <row r="407" spans="1:10" hidden="1">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>142</v>
       </c>
@@ -17688,7 +17694,7 @@
         <v>250.89</v>
       </c>
     </row>
-    <row r="408" spans="1:10" hidden="1">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>142</v>
       </c>
@@ -17714,7 +17720,7 @@
         <v>1415.16</v>
       </c>
     </row>
-    <row r="409" spans="1:10" hidden="1">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>16</v>
       </c>
@@ -17740,7 +17746,7 @@
         <v>1711.82</v>
       </c>
     </row>
-    <row r="410" spans="1:10" hidden="1">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>16</v>
       </c>
@@ -17769,7 +17775,7 @@
         <v>628.24</v>
       </c>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>39</v>
       </c>
@@ -17795,7 +17801,7 @@
         <v>2304.56</v>
       </c>
     </row>
-    <row r="412" spans="1:10" hidden="1">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>65</v>
       </c>
@@ -17821,7 +17827,7 @@
         <v>360.38</v>
       </c>
     </row>
-    <row r="413" spans="1:10" hidden="1">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>16</v>
       </c>
@@ -17847,7 +17853,7 @@
         <v>464.1</v>
       </c>
     </row>
-    <row r="414" spans="1:10" hidden="1">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>68</v>
       </c>
@@ -17873,7 +17879,7 @@
         <v>1047.94</v>
       </c>
     </row>
-    <row r="415" spans="1:10" hidden="1">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>32</v>
       </c>
@@ -17899,7 +17905,7 @@
         <v>1522.86</v>
       </c>
     </row>
-    <row r="416" spans="1:10" hidden="1">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>68</v>
       </c>
@@ -17925,7 +17931,7 @@
         <v>1324.88</v>
       </c>
     </row>
-    <row r="417" spans="1:10" hidden="1">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>21</v>
       </c>
@@ -17951,7 +17957,7 @@
         <v>2387.94</v>
       </c>
     </row>
-    <row r="418" spans="1:10" hidden="1">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>29</v>
       </c>
@@ -17977,7 +17983,7 @@
         <v>1336.78</v>
       </c>
     </row>
-    <row r="419" spans="1:10" hidden="1">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>16</v>
       </c>
@@ -18003,7 +18009,7 @@
         <v>1746.9</v>
       </c>
     </row>
-    <row r="420" spans="1:10" hidden="1">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>215</v>
       </c>
@@ -18029,7 +18035,7 @@
         <v>2164.7399999999998</v>
       </c>
     </row>
-    <row r="421" spans="1:10" hidden="1">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>29</v>
       </c>
@@ -18055,7 +18061,7 @@
         <v>4025.76</v>
       </c>
     </row>
-    <row r="422" spans="1:10" hidden="1">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>24</v>
       </c>
@@ -18081,7 +18087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:10" hidden="1">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>13</v>
       </c>
@@ -18107,7 +18113,7 @@
         <v>1284.58</v>
       </c>
     </row>
-    <row r="424" spans="1:10" hidden="1">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>65</v>
       </c>
@@ -18133,7 +18139,7 @@
         <v>1088.6400000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:10" hidden="1">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>180</v>
       </c>
@@ -18159,7 +18165,7 @@
         <v>1519.97</v>
       </c>
     </row>
-    <row r="426" spans="1:10" hidden="1">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>21</v>
       </c>
@@ -18188,7 +18194,7 @@
         <v>1247.21</v>
       </c>
     </row>
-    <row r="427" spans="1:10" hidden="1">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>32</v>
       </c>
@@ -18214,7 +18220,7 @@
         <v>669.48</v>
       </c>
     </row>
-    <row r="428" spans="1:10" hidden="1">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>142</v>
       </c>
@@ -18240,7 +18246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:10" hidden="1">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>13</v>
       </c>
@@ -18266,7 +18272,7 @@
         <v>2188.4499999999998</v>
       </c>
     </row>
-    <row r="430" spans="1:10" hidden="1">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>68</v>
       </c>
@@ -18292,7 +18298,7 @@
         <v>1545.82</v>
       </c>
     </row>
-    <row r="431" spans="1:10" hidden="1">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>21</v>
       </c>
@@ -18321,7 +18327,7 @@
         <v>2569.19</v>
       </c>
     </row>
-    <row r="432" spans="1:10" hidden="1">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>215</v>
       </c>
@@ -18347,7 +18353,7 @@
         <v>2178.59</v>
       </c>
     </row>
-    <row r="433" spans="1:10" hidden="1">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>24</v>
       </c>
@@ -18376,7 +18382,7 @@
         <v>1826.96</v>
       </c>
     </row>
-    <row r="434" spans="1:10" hidden="1">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>21</v>
       </c>
@@ -18402,7 +18408,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="435" spans="1:10" hidden="1">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>21</v>
       </c>
@@ -18428,7 +18434,7 @@
         <v>537.04</v>
       </c>
     </row>
-    <row r="436" spans="1:10" hidden="1">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>65</v>
       </c>
@@ -18451,7 +18457,7 @@
         <v>1038.06</v>
       </c>
     </row>
-    <row r="437" spans="1:10" hidden="1">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>62</v>
       </c>
@@ -18474,7 +18480,7 @@
         <v>975.16</v>
       </c>
     </row>
-    <row r="438" spans="1:10" hidden="1">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>180</v>
       </c>
@@ -18500,7 +18506,7 @@
         <v>284.02</v>
       </c>
     </row>
-    <row r="439" spans="1:10" hidden="1">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>32</v>
       </c>
@@ -18526,7 +18532,7 @@
         <v>1544.54</v>
       </c>
     </row>
-    <row r="440" spans="1:10" hidden="1">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>13</v>
       </c>
@@ -18552,7 +18558,7 @@
         <v>1704.44</v>
       </c>
     </row>
-    <row r="441" spans="1:10" hidden="1">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>180</v>
       </c>
@@ -18578,7 +18584,7 @@
         <v>2657.58</v>
       </c>
     </row>
-    <row r="442" spans="1:10" hidden="1">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>21</v>
       </c>
@@ -18604,7 +18610,7 @@
         <v>363.24</v>
       </c>
     </row>
-    <row r="443" spans="1:10" hidden="1">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>21</v>
       </c>
@@ -18630,7 +18636,7 @@
         <v>2374.02</v>
       </c>
     </row>
-    <row r="444" spans="1:10">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>39</v>
       </c>
@@ -18656,7 +18662,7 @@
         <v>1168.6400000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:10" hidden="1">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>24</v>
       </c>
@@ -18682,7 +18688,7 @@
         <v>960.36</v>
       </c>
     </row>
-    <row r="446" spans="1:10" hidden="1">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>142</v>
       </c>
@@ -18708,7 +18714,7 @@
         <v>2547.21</v>
       </c>
     </row>
-    <row r="447" spans="1:10" hidden="1">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>29</v>
       </c>
@@ -18734,7 +18740,7 @@
         <v>2094.21</v>
       </c>
     </row>
-    <row r="448" spans="1:10" hidden="1">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>24</v>
       </c>
@@ -18760,7 +18766,7 @@
         <v>2649.16</v>
       </c>
     </row>
-    <row r="449" spans="1:10" hidden="1">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>68</v>
       </c>
@@ -18786,7 +18792,7 @@
         <v>750.42</v>
       </c>
     </row>
-    <row r="450" spans="1:10" hidden="1">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>13</v>
       </c>
@@ -18812,7 +18818,7 @@
         <v>901.18</v>
       </c>
     </row>
-    <row r="451" spans="1:10" hidden="1">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>215</v>
       </c>
@@ -18841,7 +18847,7 @@
         <v>1468.8</v>
       </c>
     </row>
-    <row r="452" spans="1:10" hidden="1">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>21</v>
       </c>
@@ -18867,7 +18873,7 @@
         <v>1421.26</v>
       </c>
     </row>
-    <row r="453" spans="1:10" hidden="1">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>29</v>
       </c>
@@ -18896,7 +18902,7 @@
         <v>1237.8499999999999</v>
       </c>
     </row>
-    <row r="454" spans="1:10" hidden="1">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>29</v>
       </c>
@@ -18922,7 +18928,7 @@
         <v>2405.1999999999998</v>
       </c>
     </row>
-    <row r="455" spans="1:10" hidden="1">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>180</v>
       </c>
@@ -18948,7 +18954,7 @@
         <v>617.39</v>
       </c>
     </row>
-    <row r="456" spans="1:10" hidden="1">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>13</v>
       </c>
@@ -18974,7 +18980,7 @@
         <v>3299.7</v>
       </c>
     </row>
-    <row r="457" spans="1:10" hidden="1">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>142</v>
       </c>
@@ -19000,7 +19006,7 @@
         <v>381.1</v>
       </c>
     </row>
-    <row r="458" spans="1:10" hidden="1">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>21</v>
       </c>
@@ -19026,7 +19032,7 @@
         <v>1894.41</v>
       </c>
     </row>
-    <row r="459" spans="1:10" hidden="1">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>91</v>
       </c>
@@ -19052,7 +19058,7 @@
         <v>505.05</v>
       </c>
     </row>
-    <row r="460" spans="1:10" hidden="1">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>24</v>
       </c>
@@ -19078,7 +19084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:10" hidden="1">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>16</v>
       </c>
@@ -19101,7 +19107,7 @@
         <v>3979.62</v>
       </c>
     </row>
-    <row r="462" spans="1:10" hidden="1">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>32</v>
       </c>
@@ -19127,7 +19133,7 @@
         <v>1085.8800000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:10" hidden="1">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>91</v>
       </c>
@@ -19153,7 +19159,7 @@
         <v>1729.83</v>
       </c>
     </row>
-    <row r="464" spans="1:10" hidden="1">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>68</v>
       </c>
@@ -19179,7 +19185,7 @@
         <v>2329.2600000000002</v>
       </c>
     </row>
-    <row r="465" spans="1:10" hidden="1">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>91</v>
       </c>
@@ -19208,7 +19214,7 @@
         <v>265.06</v>
       </c>
     </row>
-    <row r="466" spans="1:10" hidden="1">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>10</v>
       </c>
@@ -19234,7 +19240,7 @@
         <v>1423.61</v>
       </c>
     </row>
-    <row r="467" spans="1:10" hidden="1">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>180</v>
       </c>
@@ -19260,7 +19266,7 @@
         <v>1184.3</v>
       </c>
     </row>
-    <row r="468" spans="1:10" hidden="1">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>21</v>
       </c>
@@ -19286,7 +19292,7 @@
         <v>140.30000000000001</v>
       </c>
     </row>
-    <row r="469" spans="1:10" hidden="1">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>13</v>
       </c>
@@ -19315,7 +19321,7 @@
         <v>1192.58</v>
       </c>
     </row>
-    <row r="470" spans="1:10" hidden="1">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>32</v>
       </c>
@@ -19338,7 +19344,7 @@
         <v>577.78</v>
       </c>
     </row>
-    <row r="471" spans="1:10" hidden="1">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>16</v>
       </c>
@@ -19361,7 +19367,7 @@
         <v>429.96</v>
       </c>
     </row>
-    <row r="472" spans="1:10" hidden="1">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>21</v>
       </c>
@@ -19390,7 +19396,7 @@
         <v>1777.07</v>
       </c>
     </row>
-    <row r="473" spans="1:10" hidden="1">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>24</v>
       </c>
@@ -19416,7 +19422,7 @@
         <v>2543.52</v>
       </c>
     </row>
-    <row r="474" spans="1:10">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>39</v>
       </c>
@@ -19439,7 +19445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:10">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>39</v>
       </c>
@@ -19465,7 +19471,7 @@
         <v>140.30000000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:10" hidden="1">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>24</v>
       </c>
@@ -19491,7 +19497,7 @@
         <v>1230.68</v>
       </c>
     </row>
-    <row r="477" spans="1:10" hidden="1">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>29</v>
       </c>
@@ -19517,7 +19523,7 @@
         <v>665.5</v>
       </c>
     </row>
-    <row r="478" spans="1:10" hidden="1">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>65</v>
       </c>
@@ -19546,7 +19552,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="479" spans="1:10" hidden="1">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>142</v>
       </c>
@@ -19572,7 +19578,7 @@
         <v>1767.96</v>
       </c>
     </row>
-    <row r="480" spans="1:10" hidden="1">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>16</v>
       </c>
@@ -19598,7 +19604,7 @@
         <v>403.03</v>
       </c>
     </row>
-    <row r="481" spans="1:10" hidden="1">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>68</v>
       </c>
@@ -19624,7 +19630,7 @@
         <v>965.32</v>
       </c>
     </row>
-    <row r="482" spans="1:10" hidden="1">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>13</v>
       </c>
@@ -19650,7 +19656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:10" hidden="1">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>21</v>
       </c>
@@ -19676,7 +19682,7 @@
         <v>953.52</v>
       </c>
     </row>
-    <row r="484" spans="1:10" hidden="1">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>10</v>
       </c>
@@ -19702,7 +19708,7 @@
         <v>138.97999999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:10" hidden="1">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>62</v>
       </c>
@@ -19728,7 +19734,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="486" spans="1:10" hidden="1">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>29</v>
       </c>
@@ -19754,7 +19760,7 @@
         <v>1687.34</v>
       </c>
     </row>
-    <row r="487" spans="1:10" hidden="1">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>13</v>
       </c>
@@ -19780,7 +19786,7 @@
         <v>1329.5</v>
       </c>
     </row>
-    <row r="488" spans="1:10" hidden="1">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>62</v>
       </c>
@@ -19806,7 +19812,7 @@
         <v>1673.39</v>
       </c>
     </row>
-    <row r="489" spans="1:10" hidden="1">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>21</v>
       </c>
@@ -19832,7 +19838,7 @@
         <v>199.12</v>
       </c>
     </row>
-    <row r="490" spans="1:10" hidden="1">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>65</v>
       </c>
@@ -19858,7 +19864,7 @@
         <v>232.56</v>
       </c>
     </row>
-    <row r="491" spans="1:10" hidden="1">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>32</v>
       </c>
@@ -19887,7 +19893,7 @@
         <v>2175.1</v>
       </c>
     </row>
-    <row r="492" spans="1:10" hidden="1">
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>65</v>
       </c>
@@ -19913,7 +19919,7 @@
         <v>1019.91</v>
       </c>
     </row>
-    <row r="493" spans="1:10" hidden="1">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>21</v>
       </c>
@@ -19939,7 +19945,7 @@
         <v>47.28</v>
       </c>
     </row>
-    <row r="494" spans="1:10" hidden="1">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>29</v>
       </c>
@@ -19962,7 +19968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:10" hidden="1">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>10</v>
       </c>
@@ -19988,7 +19994,7 @@
         <v>135.41999999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:10" hidden="1">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>10</v>
       </c>
@@ -20014,7 +20020,7 @@
         <v>1563.38</v>
       </c>
     </row>
-    <row r="497" spans="1:10" hidden="1">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>65</v>
       </c>
@@ -20040,7 +20046,7 @@
         <v>1428.78</v>
       </c>
     </row>
-    <row r="498" spans="1:10" hidden="1">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>21</v>
       </c>
@@ -20066,7 +20072,7 @@
         <v>1095.1099999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:10" hidden="1">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>24</v>
       </c>
@@ -20092,7 +20098,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="500" spans="1:10" hidden="1">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>153</v>
       </c>
@@ -20121,7 +20127,7 @@
         <v>324.83999999999997</v>
       </c>
     </row>
-    <row r="501" spans="1:10" hidden="1">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>21</v>
       </c>
@@ -20147,7 +20153,7 @@
         <v>776.5</v>
       </c>
     </row>
-    <row r="502" spans="1:10" hidden="1">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>29</v>
       </c>
@@ -20173,7 +20179,7 @@
         <v>646.66</v>
       </c>
     </row>
-    <row r="503" spans="1:10" hidden="1">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>13</v>
       </c>
@@ -20199,7 +20205,7 @@
         <v>1234.6600000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:10" hidden="1">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>13</v>
       </c>
@@ -20225,7 +20231,7 @@
         <v>993.04</v>
       </c>
     </row>
-    <row r="505" spans="1:10" hidden="1">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>10</v>
       </c>
@@ -20248,7 +20254,7 @@
         <v>249.11</v>
       </c>
     </row>
-    <row r="506" spans="1:10" hidden="1">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>68</v>
       </c>
@@ -20274,7 +20280,7 @@
         <v>751.03</v>
       </c>
     </row>
-    <row r="507" spans="1:10" hidden="1">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>29</v>
       </c>
@@ -20300,7 +20306,7 @@
         <v>596.55999999999995</v>
       </c>
     </row>
-    <row r="508" spans="1:10" hidden="1">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>29</v>
       </c>
@@ -20326,7 +20332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:10">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>39</v>
       </c>
@@ -20352,7 +20358,7 @@
         <v>487.66</v>
       </c>
     </row>
-    <row r="510" spans="1:10" hidden="1">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>24</v>
       </c>
@@ -20378,7 +20384,7 @@
         <v>101.51</v>
       </c>
     </row>
-    <row r="511" spans="1:10" hidden="1">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>16</v>
       </c>
@@ -20404,7 +20410,7 @@
         <v>1663.41</v>
       </c>
     </row>
-    <row r="512" spans="1:10" hidden="1">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>13</v>
       </c>
@@ -20430,7 +20436,7 @@
         <v>555.79999999999995</v>
       </c>
     </row>
-    <row r="513" spans="1:10" hidden="1">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>10</v>
       </c>
@@ -20456,7 +20462,7 @@
         <v>1153.8800000000001</v>
       </c>
     </row>
-    <row r="514" spans="1:10" hidden="1">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>180</v>
       </c>
@@ -20482,7 +20488,7 @@
         <v>632.69000000000005</v>
       </c>
     </row>
-    <row r="515" spans="1:10" hidden="1">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>29</v>
       </c>
@@ -20508,7 +20514,7 @@
         <v>1567.56</v>
       </c>
     </row>
-    <row r="516" spans="1:10" hidden="1">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>153</v>
       </c>
@@ -20534,7 +20540,7 @@
         <v>404.54</v>
       </c>
     </row>
-    <row r="517" spans="1:10">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>39</v>
       </c>
@@ -20563,7 +20569,7 @@
         <v>857.5</v>
       </c>
     </row>
-    <row r="518" spans="1:10" hidden="1">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>13</v>
       </c>
@@ -20589,7 +20595,7 @@
         <v>385.8</v>
       </c>
     </row>
-    <row r="519" spans="1:10" hidden="1">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>91</v>
       </c>
@@ -20615,7 +20621,7 @@
         <v>437.1</v>
       </c>
     </row>
-    <row r="520" spans="1:10" hidden="1">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>16</v>
       </c>
@@ -20641,7 +20647,7 @@
         <v>575.42999999999995</v>
       </c>
     </row>
-    <row r="521" spans="1:10" hidden="1">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>142</v>
       </c>
@@ -20670,7 +20676,7 @@
         <v>473.94</v>
       </c>
     </row>
-    <row r="522" spans="1:10" hidden="1">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>142</v>
       </c>
@@ -20696,7 +20702,7 @@
         <v>1448.4</v>
       </c>
     </row>
-    <row r="523" spans="1:10" hidden="1">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>10</v>
       </c>
@@ -20725,7 +20731,7 @@
         <v>330.98</v>
       </c>
     </row>
-    <row r="524" spans="1:10" hidden="1">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>16</v>
       </c>
@@ -20748,7 +20754,7 @@
         <v>314.83999999999997</v>
       </c>
     </row>
-    <row r="525" spans="1:10" hidden="1">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>215</v>
       </c>
@@ -20774,7 +20780,7 @@
         <v>886.6</v>
       </c>
     </row>
-    <row r="526" spans="1:10" hidden="1">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>21</v>
       </c>
@@ -20803,7 +20809,7 @@
         <v>576.22</v>
       </c>
     </row>
-    <row r="527" spans="1:10">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>39</v>
       </c>
@@ -20829,7 +20835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:10" hidden="1">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>21</v>
       </c>
@@ -20855,7 +20861,7 @@
         <v>523.13</v>
       </c>
     </row>
-    <row r="529" spans="1:10" hidden="1">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>21</v>
       </c>
@@ -20884,7 +20890,7 @@
         <v>531.4</v>
       </c>
     </row>
-    <row r="530" spans="1:10" hidden="1">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>13</v>
       </c>
@@ -20910,7 +20916,7 @@
         <v>939.87</v>
       </c>
     </row>
-    <row r="531" spans="1:10" hidden="1">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>215</v>
       </c>
@@ -20936,7 +20942,7 @@
         <v>1491.93</v>
       </c>
     </row>
-    <row r="532" spans="1:10" hidden="1">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>180</v>
       </c>
@@ -20962,7 +20968,7 @@
         <v>577.38</v>
       </c>
     </row>
-    <row r="533" spans="1:10" hidden="1">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>32</v>
       </c>
@@ -20991,7 +20997,7 @@
         <v>743.87</v>
       </c>
     </row>
-    <row r="534" spans="1:10" hidden="1">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>142</v>
       </c>
@@ -21017,7 +21023,7 @@
         <v>1158.58</v>
       </c>
     </row>
-    <row r="535" spans="1:10">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>39</v>
       </c>
@@ -21043,7 +21049,7 @@
         <v>393.68</v>
       </c>
     </row>
-    <row r="536" spans="1:10" hidden="1">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>32</v>
       </c>
@@ -21069,7 +21075,7 @@
         <v>307.75</v>
       </c>
     </row>
-    <row r="537" spans="1:10">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>39</v>
       </c>
@@ -21095,7 +21101,7 @@
         <v>278.69</v>
       </c>
     </row>
-    <row r="538" spans="1:10" hidden="1">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>21</v>
       </c>
@@ -21121,7 +21127,7 @@
         <v>939.46</v>
       </c>
     </row>
-    <row r="539" spans="1:10" hidden="1">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>13</v>
       </c>
@@ -21147,7 +21153,7 @@
         <v>1635.59</v>
       </c>
     </row>
-    <row r="540" spans="1:10" hidden="1">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>29</v>
       </c>
@@ -21173,7 +21179,7 @@
         <v>2622.81</v>
       </c>
     </row>
-    <row r="541" spans="1:10" hidden="1">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>142</v>
       </c>
@@ -21199,7 +21205,7 @@
         <v>1188.5999999999999</v>
       </c>
     </row>
-    <row r="542" spans="1:10" hidden="1">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>21</v>
       </c>
@@ -21228,7 +21234,7 @@
         <v>238.68</v>
       </c>
     </row>
-    <row r="543" spans="1:10" hidden="1">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>21</v>
       </c>
@@ -21254,7 +21260,7 @@
         <v>606.53</v>
       </c>
     </row>
-    <row r="544" spans="1:10" hidden="1">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>29</v>
       </c>
@@ -21280,7 +21286,7 @@
         <v>204.87</v>
       </c>
     </row>
-    <row r="545" spans="1:10" hidden="1">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>180</v>
       </c>
@@ -21306,7 +21312,7 @@
         <v>732.48</v>
       </c>
     </row>
-    <row r="546" spans="1:10" hidden="1">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>10</v>
       </c>
@@ -21332,7 +21338,7 @@
         <v>914.07</v>
       </c>
     </row>
-    <row r="547" spans="1:10">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>39</v>
       </c>
@@ -21358,7 +21364,7 @@
         <v>289.33999999999997</v>
       </c>
     </row>
-    <row r="548" spans="1:10" hidden="1">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>91</v>
       </c>
@@ -21387,7 +21393,7 @@
         <v>635.04</v>
       </c>
     </row>
-    <row r="549" spans="1:10" hidden="1">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>162</v>
       </c>
@@ -21413,7 +21419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:10" hidden="1">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>32</v>
       </c>
@@ -21439,7 +21445,7 @@
         <v>1490.18</v>
       </c>
     </row>
-    <row r="551" spans="1:10" hidden="1">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>65</v>
       </c>
@@ -21465,7 +21471,7 @@
         <v>145.69999999999999</v>
       </c>
     </row>
-    <row r="552" spans="1:10" hidden="1">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>29</v>
       </c>
@@ -21491,7 +21497,7 @@
         <v>855.34</v>
       </c>
     </row>
-    <row r="553" spans="1:10" hidden="1">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>32</v>
       </c>
@@ -21517,7 +21523,7 @@
         <v>565.92999999999995</v>
       </c>
     </row>
-    <row r="554" spans="1:10" hidden="1">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>68</v>
       </c>
@@ -21540,7 +21546,7 @@
         <v>221.4</v>
       </c>
     </row>
-    <row r="555" spans="1:10" hidden="1">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>32</v>
       </c>
@@ -21566,7 +21572,7 @@
         <v>475.29</v>
       </c>
     </row>
-    <row r="556" spans="1:10" hidden="1">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>10</v>
       </c>
@@ -21592,7 +21598,7 @@
         <v>885.94</v>
       </c>
     </row>
-    <row r="557" spans="1:10" hidden="1">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>13</v>
       </c>
@@ -21615,7 +21621,7 @@
         <v>1198.5999999999999</v>
       </c>
     </row>
-    <row r="558" spans="1:10" hidden="1">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>32</v>
       </c>
@@ -21644,7 +21650,7 @@
         <v>2115.42</v>
       </c>
     </row>
-    <row r="559" spans="1:10" hidden="1">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>215</v>
       </c>
@@ -21673,7 +21679,7 @@
         <v>427.84</v>
       </c>
     </row>
-    <row r="560" spans="1:10" hidden="1">
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>65</v>
       </c>
@@ -21699,7 +21705,7 @@
         <v>999.62</v>
       </c>
     </row>
-    <row r="561" spans="1:10" hidden="1">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>29</v>
       </c>
@@ -21725,7 +21731,7 @@
         <v>1217.05</v>
       </c>
     </row>
-    <row r="562" spans="1:10" hidden="1">
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>32</v>
       </c>
@@ -21751,7 +21757,7 @@
         <v>906.21</v>
       </c>
     </row>
-    <row r="563" spans="1:10" hidden="1">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>32</v>
       </c>
@@ -21777,7 +21783,7 @@
         <v>1312.97</v>
       </c>
     </row>
-    <row r="564" spans="1:10" hidden="1">
+    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>153</v>
       </c>
@@ -21803,7 +21809,7 @@
         <v>1040.9000000000001</v>
       </c>
     </row>
-    <row r="565" spans="1:10" hidden="1">
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>153</v>
       </c>
@@ -21832,7 +21838,7 @@
         <v>1400.32</v>
       </c>
     </row>
-    <row r="566" spans="1:10" hidden="1">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>16</v>
       </c>
@@ -21858,7 +21864,7 @@
         <v>2735.66</v>
       </c>
     </row>
-    <row r="567" spans="1:10" hidden="1">
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>62</v>
       </c>
@@ -21881,7 +21887,7 @@
         <v>1398.42</v>
       </c>
     </row>
-    <row r="568" spans="1:10" hidden="1">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>13</v>
       </c>
@@ -21907,7 +21913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:10" hidden="1">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>21</v>
       </c>
@@ -21930,7 +21936,7 @@
         <v>1093.1400000000001</v>
       </c>
     </row>
-    <row r="570" spans="1:10" hidden="1">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>10</v>
       </c>
@@ -21956,7 +21962,7 @@
         <v>865.29</v>
       </c>
     </row>
-    <row r="571" spans="1:10" hidden="1">
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>13</v>
       </c>
@@ -21982,7 +21988,7 @@
         <v>1379.69</v>
       </c>
     </row>
-    <row r="572" spans="1:10" hidden="1">
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>180</v>
       </c>
@@ -22008,7 +22014,7 @@
         <v>1142.8</v>
       </c>
     </row>
-    <row r="573" spans="1:10" hidden="1">
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>32</v>
       </c>
@@ -22034,7 +22040,7 @@
         <v>350.96</v>
       </c>
     </row>
-    <row r="574" spans="1:10" hidden="1">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>21</v>
       </c>
@@ -22060,7 +22066,7 @@
         <v>157.97999999999999</v>
       </c>
     </row>
-    <row r="575" spans="1:10" hidden="1">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>24</v>
       </c>
@@ -22086,7 +22092,7 @@
         <v>1367.61</v>
       </c>
     </row>
-    <row r="576" spans="1:10" hidden="1">
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>24</v>
       </c>
@@ -22109,7 +22115,7 @@
         <v>1251.5899999999999</v>
       </c>
     </row>
-    <row r="577" spans="1:10" hidden="1">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>91</v>
       </c>
@@ -22135,7 +22141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:10">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>39</v>
       </c>
@@ -22161,7 +22167,7 @@
         <v>1841.24</v>
       </c>
     </row>
-    <row r="579" spans="1:10" hidden="1">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>215</v>
       </c>
@@ -22187,7 +22193,7 @@
         <v>809.38</v>
       </c>
     </row>
-    <row r="580" spans="1:10" hidden="1">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>153</v>
       </c>
@@ -22216,7 +22222,7 @@
         <v>49.28</v>
       </c>
     </row>
-    <row r="581" spans="1:10" hidden="1">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>21</v>
       </c>
@@ -22242,7 +22248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:10" hidden="1">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>21</v>
       </c>
@@ -22268,7 +22274,7 @@
         <v>205.26</v>
       </c>
     </row>
-    <row r="583" spans="1:10" hidden="1">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>13</v>
       </c>
@@ -22294,7 +22300,7 @@
         <v>1590.86</v>
       </c>
     </row>
-    <row r="584" spans="1:10" hidden="1">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>215</v>
       </c>
@@ -22323,7 +22329,7 @@
         <v>568.44000000000005</v>
       </c>
     </row>
-    <row r="585" spans="1:10" hidden="1">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>21</v>
       </c>
@@ -22349,7 +22355,7 @@
         <v>390.57</v>
       </c>
     </row>
-    <row r="586" spans="1:10" hidden="1">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>29</v>
       </c>
@@ -22372,7 +22378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:10" hidden="1">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>175</v>
       </c>
@@ -22398,7 +22404,7 @@
         <v>1268.1400000000001</v>
       </c>
     </row>
-    <row r="588" spans="1:10" hidden="1">
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>13</v>
       </c>
@@ -22424,7 +22430,7 @@
         <v>301.93</v>
       </c>
     </row>
-    <row r="589" spans="1:10" hidden="1">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>16</v>
       </c>
@@ -22450,7 +22456,7 @@
         <v>683.64</v>
       </c>
     </row>
-    <row r="590" spans="1:10" hidden="1">
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>153</v>
       </c>
@@ -22476,7 +22482,7 @@
         <v>1300.7</v>
       </c>
     </row>
-    <row r="591" spans="1:10" hidden="1">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>21</v>
       </c>
@@ -22502,7 +22508,7 @@
         <v>1786.96</v>
       </c>
     </row>
-    <row r="592" spans="1:10" hidden="1">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>13</v>
       </c>
@@ -22528,7 +22534,7 @@
         <v>806.06</v>
       </c>
     </row>
-    <row r="593" spans="1:10" hidden="1">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>13</v>
       </c>
@@ -22554,7 +22560,7 @@
         <v>860.87</v>
       </c>
     </row>
-    <row r="594" spans="1:10" hidden="1">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>153</v>
       </c>
@@ -22577,7 +22583,7 @@
         <v>859.76</v>
       </c>
     </row>
-    <row r="595" spans="1:10" hidden="1">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>215</v>
       </c>
@@ -22603,7 +22609,7 @@
         <v>816.28</v>
       </c>
     </row>
-    <row r="596" spans="1:10" hidden="1">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>13</v>
       </c>
@@ -22632,7 +22638,7 @@
         <v>481.52</v>
       </c>
     </row>
-    <row r="597" spans="1:10" hidden="1">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>16</v>
       </c>
@@ -22655,7 +22661,7 @@
         <v>343.54</v>
       </c>
     </row>
-    <row r="598" spans="1:10" hidden="1">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>32</v>
       </c>
@@ -22681,7 +22687,7 @@
         <v>1138.4100000000001</v>
       </c>
     </row>
-    <row r="599" spans="1:10" hidden="1">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>10</v>
       </c>
@@ -22701,7 +22707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:10" hidden="1">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>10</v>
       </c>
@@ -22727,7 +22733,7 @@
         <v>577.08000000000004</v>
       </c>
     </row>
-    <row r="601" spans="1:10" hidden="1">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>13</v>
       </c>
@@ -22750,7 +22756,7 @@
         <v>439.86</v>
       </c>
     </row>
-    <row r="602" spans="1:10" hidden="1">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>68</v>
       </c>
@@ -22776,7 +22782,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="603" spans="1:10" hidden="1">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>65</v>
       </c>
@@ -22802,7 +22808,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="604" spans="1:10" hidden="1">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>16</v>
       </c>
@@ -22828,7 +22834,7 @@
         <v>98.42</v>
       </c>
     </row>
-    <row r="605" spans="1:10" hidden="1">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>29</v>
       </c>
@@ -22854,7 +22860,7 @@
         <v>647.82000000000005</v>
       </c>
     </row>
-    <row r="606" spans="1:10" hidden="1">
+    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>21</v>
       </c>
@@ -22883,7 +22889,7 @@
         <v>1465.2</v>
       </c>
     </row>
-    <row r="607" spans="1:10" hidden="1">
+    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>16</v>
       </c>
@@ -22906,7 +22912,7 @@
         <v>233.06</v>
       </c>
     </row>
-    <row r="608" spans="1:10" hidden="1">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>10</v>
       </c>
@@ -22932,7 +22938,7 @@
         <v>244.86</v>
       </c>
     </row>
-    <row r="609" spans="1:10" hidden="1">
+    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>142</v>
       </c>
@@ -22958,7 +22964,7 @@
         <v>847.62</v>
       </c>
     </row>
-    <row r="610" spans="1:10" hidden="1">
+    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>32</v>
       </c>
@@ -22981,7 +22987,7 @@
         <v>487.36</v>
       </c>
     </row>
-    <row r="611" spans="1:10" hidden="1">
+    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>29</v>
       </c>
@@ -23007,7 +23013,7 @@
         <v>693.68</v>
       </c>
     </row>
-    <row r="612" spans="1:10" hidden="1">
+    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>13</v>
       </c>
@@ -23033,7 +23039,7 @@
         <v>773.1</v>
       </c>
     </row>
-    <row r="613" spans="1:10" hidden="1">
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>32</v>
       </c>
@@ -23059,7 +23065,7 @@
         <v>400.24</v>
       </c>
     </row>
-    <row r="614" spans="1:10" hidden="1">
+    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>32</v>
       </c>
@@ -23085,7 +23091,7 @@
         <v>1785.4</v>
       </c>
     </row>
-    <row r="615" spans="1:10" hidden="1">
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>142</v>
       </c>
@@ -23111,7 +23117,7 @@
         <v>742.36</v>
       </c>
     </row>
-    <row r="616" spans="1:10">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>39</v>
       </c>
@@ -23137,7 +23143,7 @@
         <v>1860.98</v>
       </c>
     </row>
-    <row r="617" spans="1:10" hidden="1">
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>13</v>
       </c>
@@ -23163,7 +23169,7 @@
         <v>49.93</v>
       </c>
     </row>
-    <row r="618" spans="1:10" hidden="1">
+    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>10</v>
       </c>
@@ -23189,7 +23195,7 @@
         <v>431.95</v>
       </c>
     </row>
-    <row r="619" spans="1:10">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>39</v>
       </c>
@@ -23212,7 +23218,7 @@
         <v>578.38</v>
       </c>
     </row>
-    <row r="620" spans="1:10" hidden="1">
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>175</v>
       </c>
@@ -23241,7 +23247,7 @@
         <v>348.4</v>
       </c>
     </row>
-    <row r="621" spans="1:10">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>39</v>
       </c>
@@ -23264,7 +23270,7 @@
         <v>119.56</v>
       </c>
     </row>
-    <row r="622" spans="1:10" hidden="1">
+    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>62</v>
       </c>
@@ -23287,7 +23293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:10" hidden="1">
+    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>68</v>
       </c>
@@ -23313,7 +23319,7 @@
         <v>1549.68</v>
       </c>
     </row>
-    <row r="624" spans="1:10" hidden="1">
+    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>21</v>
       </c>
@@ -23336,7 +23342,7 @@
         <v>842.33</v>
       </c>
     </row>
-    <row r="625" spans="1:10">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>39</v>
       </c>
@@ -23362,7 +23368,7 @@
         <v>345.96</v>
       </c>
     </row>
-    <row r="626" spans="1:10" hidden="1">
+    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>68</v>
       </c>
@@ -23388,7 +23394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:10" hidden="1">
+    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>16</v>
       </c>
@@ -23414,7 +23420,7 @@
         <v>197.8</v>
       </c>
     </row>
-    <row r="628" spans="1:10" hidden="1">
+    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>68</v>
       </c>
@@ -23440,7 +23446,7 @@
         <v>378.76</v>
       </c>
     </row>
-    <row r="629" spans="1:10" hidden="1">
+    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>65</v>
       </c>
@@ -23466,7 +23472,7 @@
         <v>884.92</v>
       </c>
     </row>
-    <row r="630" spans="1:10" hidden="1">
+    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>24</v>
       </c>
@@ -23492,7 +23498,7 @@
         <v>690.92</v>
       </c>
     </row>
-    <row r="631" spans="1:10" hidden="1">
+    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>68</v>
       </c>
@@ -23518,7 +23524,7 @@
         <v>57.41</v>
       </c>
     </row>
-    <row r="632" spans="1:10" hidden="1">
+    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>175</v>
       </c>
@@ -23544,7 +23550,7 @@
         <v>378.24</v>
       </c>
     </row>
-    <row r="633" spans="1:10" hidden="1">
+    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>68</v>
       </c>
@@ -23570,7 +23576,7 @@
         <v>607.9</v>
       </c>
     </row>
-    <row r="634" spans="1:10" hidden="1">
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>16</v>
       </c>
@@ -23596,7 +23602,7 @@
         <v>1720.34</v>
       </c>
     </row>
-    <row r="635" spans="1:10" hidden="1">
+    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>215</v>
       </c>
@@ -23622,7 +23628,7 @@
         <v>592.77</v>
       </c>
     </row>
-    <row r="636" spans="1:10" hidden="1">
+    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>65</v>
       </c>
@@ -23648,7 +23654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:10" hidden="1">
+    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>13</v>
       </c>
@@ -23674,7 +23680,7 @@
         <v>1790.32</v>
       </c>
     </row>
-    <row r="638" spans="1:10" hidden="1">
+    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>68</v>
       </c>
@@ -23700,7 +23706,7 @@
         <v>1299.44</v>
       </c>
     </row>
-    <row r="639" spans="1:10" hidden="1">
+    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>24</v>
       </c>
@@ -23723,7 +23729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:10" hidden="1">
+    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>68</v>
       </c>
@@ -23749,7 +23755,7 @@
         <v>1512.42</v>
       </c>
     </row>
-    <row r="641" spans="1:10" hidden="1">
+    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>10</v>
       </c>
@@ -23775,7 +23781,7 @@
         <v>596.78</v>
       </c>
     </row>
-    <row r="642" spans="1:10" hidden="1">
+    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>13</v>
       </c>
@@ -23804,7 +23810,7 @@
         <v>406.02</v>
       </c>
     </row>
-    <row r="643" spans="1:10" hidden="1">
+    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>215</v>
       </c>
@@ -23830,7 +23836,7 @@
         <v>457.1</v>
       </c>
     </row>
-    <row r="644" spans="1:10" hidden="1">
+    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>142</v>
       </c>
@@ -23856,7 +23862,7 @@
         <v>569.66</v>
       </c>
     </row>
-    <row r="645" spans="1:10" hidden="1">
+    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>142</v>
       </c>
@@ -23882,7 +23888,7 @@
         <v>514.6</v>
       </c>
     </row>
-    <row r="646" spans="1:10" hidden="1">
+    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>10</v>
       </c>
@@ -23908,7 +23914,7 @@
         <v>209.12</v>
       </c>
     </row>
-    <row r="647" spans="1:10" hidden="1">
+    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>62</v>
       </c>
@@ -23934,7 +23940,7 @@
         <v>1393.19</v>
       </c>
     </row>
-    <row r="648" spans="1:10" hidden="1">
+    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>215</v>
       </c>
@@ -23957,7 +23963,7 @@
         <v>1616.26</v>
       </c>
     </row>
-    <row r="649" spans="1:10" hidden="1">
+    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>13</v>
       </c>
@@ -23983,7 +23989,7 @@
         <v>652.19000000000005</v>
       </c>
     </row>
-    <row r="650" spans="1:10" hidden="1">
+    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>16</v>
       </c>
@@ -24009,7 +24015,7 @@
         <v>1533.26</v>
       </c>
     </row>
-    <row r="651" spans="1:10" hidden="1">
+    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>16</v>
       </c>
@@ -24032,7 +24038,7 @@
         <v>298.27999999999997</v>
       </c>
     </row>
-    <row r="652" spans="1:10" hidden="1">
+    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>13</v>
       </c>
@@ -24058,7 +24064,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="653" spans="1:10" hidden="1">
+    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>32</v>
       </c>
@@ -24084,7 +24090,7 @@
         <v>216.09</v>
       </c>
     </row>
-    <row r="654" spans="1:10" hidden="1">
+    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>29</v>
       </c>
@@ -24110,7 +24116,7 @@
         <v>104.56</v>
       </c>
     </row>
-    <row r="655" spans="1:10" hidden="1">
+    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>142</v>
       </c>
@@ -24133,7 +24139,7 @@
         <v>71.58</v>
       </c>
     </row>
-    <row r="656" spans="1:10">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>39</v>
       </c>
@@ -24156,7 +24162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:10" hidden="1">
+    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>32</v>
       </c>
@@ -24185,7 +24191,7 @@
         <v>102.73</v>
       </c>
     </row>
-    <row r="658" spans="1:10" hidden="1">
+    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>10</v>
       </c>
@@ -24208,7 +24214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:10" hidden="1">
+    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>68</v>
       </c>
@@ -24228,7 +24234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:10" hidden="1">
+    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>29</v>
       </c>
@@ -24248,7 +24254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:10" hidden="1">
+    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>24</v>
       </c>
@@ -24271,7 +24277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:10" hidden="1">
+    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>21</v>
       </c>
@@ -24297,7 +24303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:10" hidden="1">
+    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>24</v>
       </c>
@@ -24320,7 +24326,7 @@
         <v>311.83999999999997</v>
       </c>
     </row>
-    <row r="664" spans="1:10" hidden="1">
+    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>24</v>
       </c>
@@ -24346,7 +24352,7 @@
         <v>372.1</v>
       </c>
     </row>
-    <row r="665" spans="1:10" hidden="1">
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>68</v>
       </c>
@@ -24372,7 +24378,7 @@
         <v>202.53</v>
       </c>
     </row>
-    <row r="666" spans="1:10" hidden="1">
+    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>29</v>
       </c>
@@ -24398,7 +24404,7 @@
         <v>237.44</v>
       </c>
     </row>
-    <row r="667" spans="1:10" hidden="1">
+    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>91</v>
       </c>
@@ -24424,7 +24430,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="668" spans="1:10" hidden="1">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>24</v>
       </c>
@@ -24450,7 +24456,7 @@
         <v>400.17</v>
       </c>
     </row>
-    <row r="669" spans="1:10" hidden="1">
+    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>68</v>
       </c>
@@ -24473,7 +24479,7 @@
         <v>377.94</v>
       </c>
     </row>
-    <row r="670" spans="1:10" hidden="1">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>16</v>
       </c>
@@ -24499,7 +24505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:10" hidden="1">
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>65</v>
       </c>
@@ -24525,7 +24531,7 @@
         <v>678.37</v>
       </c>
     </row>
-    <row r="672" spans="1:10" hidden="1">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>32</v>
       </c>
@@ -24551,7 +24557,7 @@
         <v>283.62</v>
       </c>
     </row>
-    <row r="673" spans="1:10" hidden="1">
+    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>29</v>
       </c>
@@ -24577,7 +24583,7 @@
         <v>500.94</v>
       </c>
     </row>
-    <row r="674" spans="1:10" hidden="1">
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>62</v>
       </c>
@@ -24603,7 +24609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:10" hidden="1">
+    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>29</v>
       </c>
@@ -24629,7 +24635,7 @@
         <v>723.64</v>
       </c>
     </row>
-    <row r="676" spans="1:10" hidden="1">
+    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>24</v>
       </c>
@@ -24652,7 +24658,7 @@
         <v>288.12</v>
       </c>
     </row>
-    <row r="677" spans="1:10" hidden="1">
+    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>215</v>
       </c>
@@ -24678,7 +24684,7 @@
         <v>44.28</v>
       </c>
     </row>
-    <row r="678" spans="1:10" hidden="1">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>153</v>
       </c>
@@ -24704,7 +24710,7 @@
         <v>246.46</v>
       </c>
     </row>
-    <row r="679" spans="1:10" hidden="1">
+    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>21</v>
       </c>
@@ -24727,7 +24733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:10" hidden="1">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>29</v>
       </c>
@@ -24753,7 +24759,7 @@
         <v>530.41999999999996</v>
       </c>
     </row>
-    <row r="681" spans="1:10" hidden="1">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>10</v>
       </c>
@@ -24779,7 +24785,7 @@
         <v>1271.5899999999999</v>
       </c>
     </row>
-    <row r="682" spans="1:10" hidden="1">
+    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>175</v>
       </c>
@@ -24805,7 +24811,7 @@
         <v>710.52</v>
       </c>
     </row>
-    <row r="683" spans="1:10" hidden="1">
+    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>65</v>
       </c>
@@ -24831,7 +24837,7 @@
         <v>592.55999999999995</v>
       </c>
     </row>
-    <row r="684" spans="1:10" hidden="1">
+    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>16</v>
       </c>
@@ -24857,7 +24863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:10" hidden="1">
+    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>215</v>
       </c>
@@ -24880,7 +24886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:10" hidden="1">
+    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>62</v>
       </c>
@@ -24906,7 +24912,7 @@
         <v>399.14</v>
       </c>
     </row>
-    <row r="687" spans="1:10" hidden="1">
+    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>13</v>
       </c>
@@ -24932,7 +24938,7 @@
         <v>652.36</v>
       </c>
     </row>
-    <row r="688" spans="1:10" hidden="1">
+    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>21</v>
       </c>
@@ -24958,7 +24964,7 @@
         <v>82.56</v>
       </c>
     </row>
-    <row r="689" spans="1:10" hidden="1">
+    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>13</v>
       </c>
@@ -24984,7 +24990,7 @@
         <v>325.68</v>
       </c>
     </row>
-    <row r="690" spans="1:10" hidden="1">
+    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>65</v>
       </c>
@@ -25010,7 +25016,7 @@
         <v>212.54</v>
       </c>
     </row>
-    <row r="691" spans="1:10" hidden="1">
+    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>29</v>
       </c>
@@ -25036,7 +25042,7 @@
         <v>959.84</v>
       </c>
     </row>
-    <row r="692" spans="1:10" hidden="1">
+    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>21</v>
       </c>
@@ -25065,7 +25071,7 @@
         <v>864.2</v>
       </c>
     </row>
-    <row r="693" spans="1:10" hidden="1">
+    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>62</v>
       </c>
@@ -25085,7 +25091,7 @@
         <v>501.42</v>
       </c>
     </row>
-    <row r="694" spans="1:10" hidden="1">
+    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>68</v>
       </c>
@@ -25108,7 +25114,7 @@
         <v>291.54000000000002</v>
       </c>
     </row>
-    <row r="695" spans="1:10" hidden="1">
+    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>215</v>
       </c>
@@ -25134,7 +25140,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="696" spans="1:10" hidden="1">
+    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>62</v>
       </c>
@@ -25160,7 +25166,7 @@
         <v>184.85</v>
       </c>
     </row>
-    <row r="697" spans="1:10" hidden="1">
+    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>175</v>
       </c>
@@ -25186,7 +25192,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="698" spans="1:10" hidden="1">
+    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>13</v>
       </c>
@@ -25209,7 +25215,7 @@
         <v>274.82</v>
       </c>
     </row>
-    <row r="699" spans="1:10" hidden="1">
+    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>142</v>
       </c>
@@ -25235,7 +25241,7 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="700" spans="1:10">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>39</v>
       </c>
@@ -25258,7 +25264,7 @@
         <v>393.03</v>
       </c>
     </row>
-    <row r="701" spans="1:10" hidden="1">
+    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>142</v>
       </c>
@@ -25284,7 +25290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:10" hidden="1">
+    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>29</v>
       </c>
@@ -25307,7 +25313,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="703" spans="1:10" hidden="1">
+    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>215</v>
       </c>
@@ -25333,7 +25339,7 @@
         <v>563.94000000000005</v>
       </c>
     </row>
-    <row r="704" spans="1:10" hidden="1">
+    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>10</v>
       </c>
@@ -25359,7 +25365,7 @@
         <v>83.42</v>
       </c>
     </row>
-    <row r="705" spans="1:10" hidden="1">
+    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>142</v>
       </c>
@@ -25382,7 +25388,7 @@
         <v>22.29</v>
       </c>
     </row>
-    <row r="706" spans="1:10" hidden="1">
+    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>68</v>
       </c>
@@ -25408,7 +25414,7 @@
         <v>867.88</v>
       </c>
     </row>
-    <row r="707" spans="1:10" hidden="1">
+    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>21</v>
       </c>
@@ -25434,7 +25440,7 @@
         <v>925.96</v>
       </c>
     </row>
-    <row r="708" spans="1:10" hidden="1">
+    <row r="708" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>68</v>
       </c>
@@ -25460,7 +25466,7 @@
         <v>50.28</v>
       </c>
     </row>
-    <row r="709" spans="1:10" hidden="1">
+    <row r="709" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>13</v>
       </c>
@@ -25483,7 +25489,7 @@
         <v>568.94000000000005</v>
       </c>
     </row>
-    <row r="710" spans="1:10" hidden="1">
+    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>10</v>
       </c>
@@ -25509,7 +25515,7 @@
         <v>252.98</v>
       </c>
     </row>
-    <row r="711" spans="1:10" hidden="1">
+    <row r="711" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>24</v>
       </c>
@@ -25535,7 +25541,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="712" spans="1:10" hidden="1">
+    <row r="712" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>13</v>
       </c>
@@ -25561,7 +25567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:10" hidden="1">
+    <row r="713" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>16</v>
       </c>
@@ -25587,7 +25593,7 @@
         <v>436.71</v>
       </c>
     </row>
-    <row r="714" spans="1:10" hidden="1">
+    <row r="714" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>29</v>
       </c>
@@ -25613,7 +25619,7 @@
         <v>202.98</v>
       </c>
     </row>
-    <row r="715" spans="1:10">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>39</v>
       </c>
@@ -25639,7 +25645,7 @@
         <v>1023.31</v>
       </c>
     </row>
-    <row r="716" spans="1:10" hidden="1">
+    <row r="716" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>13</v>
       </c>
@@ -25665,7 +25671,7 @@
         <v>224.51</v>
       </c>
     </row>
-    <row r="717" spans="1:10" hidden="1">
+    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>13</v>
       </c>
@@ -25688,7 +25694,7 @@
         <v>209.84</v>
       </c>
     </row>
-    <row r="718" spans="1:10" hidden="1">
+    <row r="718" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>65</v>
       </c>
@@ -25711,7 +25717,7 @@
         <v>550.08000000000004</v>
       </c>
     </row>
-    <row r="719" spans="1:10" hidden="1">
+    <row r="719" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>24</v>
       </c>
@@ -25734,7 +25740,7 @@
         <v>257.04000000000002</v>
       </c>
     </row>
-    <row r="720" spans="1:10" hidden="1">
+    <row r="720" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
         <v>13</v>
       </c>
@@ -25760,7 +25766,7 @@
         <v>364.82</v>
       </c>
     </row>
-    <row r="721" spans="1:10" hidden="1">
+    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>62</v>
       </c>
@@ -25783,7 +25789,7 @@
         <v>603.08000000000004</v>
       </c>
     </row>
-    <row r="722" spans="1:10" hidden="1">
+    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>24</v>
       </c>
@@ -25809,7 +25815,7 @@
         <v>386.1</v>
       </c>
     </row>
-    <row r="723" spans="1:10" hidden="1">
+    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>24</v>
       </c>
@@ -25835,7 +25841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:10" hidden="1">
+    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>24</v>
       </c>
@@ -25858,7 +25864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:10" hidden="1">
+    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>24</v>
       </c>
@@ -25884,7 +25890,7 @@
         <v>1917.13</v>
       </c>
     </row>
-    <row r="726" spans="1:10" hidden="1">
+    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
         <v>24</v>
       </c>
@@ -25910,7 +25916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:10" hidden="1">
+    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>21</v>
       </c>
@@ -25936,7 +25942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:10" hidden="1">
+    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>215</v>
       </c>
@@ -25962,7 +25968,7 @@
         <v>124.62</v>
       </c>
     </row>
-    <row r="729" spans="1:10" hidden="1">
+    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>21</v>
       </c>
@@ -25988,7 +25994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:10" hidden="1">
+    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>21</v>
       </c>
@@ -26014,7 +26020,7 @@
         <v>151.84</v>
       </c>
     </row>
-    <row r="731" spans="1:10" hidden="1">
+    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>16</v>
       </c>
@@ -26040,7 +26046,7 @@
         <v>410.94</v>
       </c>
     </row>
-    <row r="732" spans="1:10" hidden="1">
+    <row r="732" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>62</v>
       </c>
@@ -26066,7 +26072,7 @@
         <v>298.39999999999998</v>
       </c>
     </row>
-    <row r="733" spans="1:10" hidden="1">
+    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>13</v>
       </c>
@@ -26086,7 +26092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:10" hidden="1">
+    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>68</v>
       </c>
@@ -26112,7 +26118,7 @@
         <v>442.64</v>
       </c>
     </row>
-    <row r="735" spans="1:10">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>39</v>
       </c>
@@ -26138,7 +26144,7 @@
         <v>72.569999999999993</v>
       </c>
     </row>
-    <row r="736" spans="1:10" hidden="1">
+    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
         <v>13</v>
       </c>
@@ -26164,7 +26170,7 @@
         <v>335.26</v>
       </c>
     </row>
-    <row r="737" spans="1:10" hidden="1">
+    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
         <v>62</v>
       </c>
@@ -26187,7 +26193,7 @@
         <v>569.66</v>
       </c>
     </row>
-    <row r="738" spans="1:10">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>39</v>
       </c>
@@ -26213,7 +26219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:10" hidden="1">
+    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>24</v>
       </c>
@@ -26242,7 +26248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:10" hidden="1">
+    <row r="740" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
         <v>16</v>
       </c>
@@ -26265,7 +26271,7 @@
         <v>277.54000000000002</v>
       </c>
     </row>
-    <row r="741" spans="1:10" hidden="1">
+    <row r="741" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>16</v>
       </c>
@@ -26288,7 +26294,7 @@
         <v>187.26</v>
       </c>
     </row>
-    <row r="742" spans="1:10" hidden="1">
+    <row r="742" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>32</v>
       </c>
@@ -26314,7 +26320,7 @@
         <v>538.94000000000005</v>
       </c>
     </row>
-    <row r="743" spans="1:10">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>39</v>
       </c>
@@ -26337,7 +26343,7 @@
         <v>679.77</v>
       </c>
     </row>
-    <row r="744" spans="1:10" hidden="1">
+    <row r="744" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>142</v>
       </c>
@@ -26363,7 +26369,7 @@
         <v>104.56</v>
       </c>
     </row>
-    <row r="745" spans="1:10">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>39</v>
       </c>
@@ -26389,7 +26395,7 @@
         <v>914.22</v>
       </c>
     </row>
-    <row r="746" spans="1:10" hidden="1">
+    <row r="746" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>24</v>
       </c>
@@ -26415,7 +26421,7 @@
         <v>228.54</v>
       </c>
     </row>
-    <row r="747" spans="1:10" hidden="1">
+    <row r="747" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>68</v>
       </c>
@@ -26441,7 +26447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:10" hidden="1">
+    <row r="748" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>62</v>
       </c>
@@ -26467,7 +26473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:10" hidden="1">
+    <row r="749" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
         <v>13</v>
       </c>
@@ -26493,7 +26499,7 @@
         <v>404.82</v>
       </c>
     </row>
-    <row r="750" spans="1:10" hidden="1">
+    <row r="750" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>21</v>
       </c>
@@ -26519,7 +26525,7 @@
         <v>763.51</v>
       </c>
     </row>
-    <row r="751" spans="1:10" hidden="1">
+    <row r="751" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>180</v>
       </c>
@@ -26545,7 +26551,7 @@
         <v>348.68</v>
       </c>
     </row>
-    <row r="752" spans="1:10" hidden="1">
+    <row r="752" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>13</v>
       </c>
@@ -26571,7 +26577,7 @@
         <v>350.24</v>
       </c>
     </row>
-    <row r="753" spans="1:10" hidden="1">
+    <row r="753" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>65</v>
       </c>
@@ -26594,7 +26600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:10" hidden="1">
+    <row r="754" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
         <v>29</v>
       </c>
@@ -26620,7 +26626,7 @@
         <v>209.12</v>
       </c>
     </row>
-    <row r="755" spans="1:10" hidden="1">
+    <row r="755" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
         <v>32</v>
       </c>
@@ -26646,7 +26652,7 @@
         <v>138.16</v>
       </c>
     </row>
-    <row r="756" spans="1:10" hidden="1">
+    <row r="756" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>29</v>
       </c>
@@ -26669,7 +26675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:10" hidden="1">
+    <row r="757" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>142</v>
       </c>
@@ -26692,7 +26698,7 @@
         <v>260.55</v>
       </c>
     </row>
-    <row r="758" spans="1:10" hidden="1">
+    <row r="758" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
         <v>68</v>
       </c>
@@ -26718,7 +26724,7 @@
         <v>151.24</v>
       </c>
     </row>
-    <row r="759" spans="1:10" hidden="1">
+    <row r="759" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
         <v>215</v>
       </c>
@@ -26741,7 +26747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:10" hidden="1">
+    <row r="760" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
         <v>29</v>
       </c>
@@ -26764,7 +26770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:10">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
         <v>39</v>
       </c>
@@ -26787,7 +26793,7 @@
         <v>542.22</v>
       </c>
     </row>
-    <row r="762" spans="1:10" hidden="1">
+    <row r="762" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
         <v>13</v>
       </c>
@@ -26810,7 +26816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:10" hidden="1">
+    <row r="763" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
         <v>142</v>
       </c>
@@ -26836,7 +26842,7 @@
         <v>741.09</v>
       </c>
     </row>
-    <row r="764" spans="1:10" hidden="1">
+    <row r="764" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
         <v>13</v>
       </c>
@@ -26862,7 +26868,7 @@
         <v>206.84</v>
       </c>
     </row>
-    <row r="765" spans="1:10" hidden="1">
+    <row r="765" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
         <v>13</v>
       </c>
@@ -26888,7 +26894,7 @@
         <v>291.04000000000002</v>
       </c>
     </row>
-    <row r="766" spans="1:10" hidden="1">
+    <row r="766" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
         <v>24</v>
       </c>
@@ -26914,7 +26920,7 @@
         <v>1175.18</v>
       </c>
     </row>
-    <row r="767" spans="1:10" hidden="1">
+    <row r="767" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
         <v>153</v>
       </c>
@@ -26937,7 +26943,7 @@
         <v>98.42</v>
       </c>
     </row>
-    <row r="768" spans="1:10" hidden="1">
+    <row r="768" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
         <v>13</v>
       </c>
@@ -26960,7 +26966,7 @@
         <v>244.65</v>
       </c>
     </row>
-    <row r="769" spans="1:10" hidden="1">
+    <row r="769" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
         <v>21</v>
       </c>
@@ -26986,7 +26992,7 @@
         <v>579.66</v>
       </c>
     </row>
-    <row r="770" spans="1:10" hidden="1">
+    <row r="770" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
         <v>29</v>
       </c>
@@ -27012,7 +27018,7 @@
         <v>130.69999999999999</v>
       </c>
     </row>
-    <row r="771" spans="1:10">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
         <v>39</v>
       </c>
@@ -27038,7 +27044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:10" hidden="1">
+    <row r="772" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
         <v>24</v>
       </c>
@@ -27064,7 +27070,7 @@
         <v>562.36</v>
       </c>
     </row>
-    <row r="773" spans="1:10" hidden="1">
+    <row r="773" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
         <v>24</v>
       </c>
@@ -27087,7 +27093,7 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="774" spans="1:10" hidden="1">
+    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
         <v>142</v>
       </c>
@@ -27113,7 +27119,7 @@
         <v>123.6</v>
       </c>
     </row>
-    <row r="775" spans="1:10" hidden="1">
+    <row r="775" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
         <v>32</v>
       </c>
@@ -27139,7 +27145,7 @@
         <v>387.4</v>
       </c>
     </row>
-    <row r="776" spans="1:10" hidden="1">
+    <row r="776" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
         <v>62</v>
       </c>
@@ -27165,7 +27171,7 @@
         <v>509.56</v>
       </c>
     </row>
-    <row r="777" spans="1:10" hidden="1">
+    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
         <v>68</v>
       </c>
@@ -27188,7 +27194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:10" hidden="1">
+    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
         <v>32</v>
       </c>
@@ -27214,7 +27220,7 @@
         <v>673.1</v>
       </c>
     </row>
-    <row r="779" spans="1:10" hidden="1">
+    <row r="779" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
         <v>68</v>
       </c>
@@ -27240,7 +27246,7 @@
         <v>380.24</v>
       </c>
     </row>
-    <row r="780" spans="1:10">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
         <v>39</v>
       </c>
@@ -27266,7 +27272,7 @@
         <v>537.54</v>
       </c>
     </row>
-    <row r="781" spans="1:10" hidden="1">
+    <row r="781" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
         <v>16</v>
       </c>
@@ -27292,7 +27298,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="782" spans="1:10" hidden="1">
+    <row r="782" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
         <v>142</v>
       </c>
@@ -27318,7 +27324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:10" hidden="1">
+    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
         <v>10</v>
       </c>
@@ -27338,7 +27344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:10" hidden="1">
+    <row r="784" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
         <v>24</v>
       </c>
@@ -27364,7 +27370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:10" hidden="1">
+    <row r="785" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
         <v>62</v>
       </c>
@@ -27390,7 +27396,7 @@
         <v>258.32</v>
       </c>
     </row>
-    <row r="786" spans="1:10" hidden="1">
+    <row r="786" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
         <v>91</v>
       </c>
@@ -27416,7 +27422,7 @@
         <v>64.56</v>
       </c>
     </row>
-    <row r="787" spans="1:10" hidden="1">
+    <row r="787" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
         <v>32</v>
       </c>
@@ -27439,7 +27445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:10">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
         <v>39</v>
       </c>
@@ -27462,7 +27468,7 @@
         <v>313.68</v>
       </c>
     </row>
-    <row r="789" spans="1:10" hidden="1">
+    <row r="789" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
         <v>10</v>
       </c>
@@ -27488,7 +27494,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="790" spans="1:10" hidden="1">
+    <row r="790" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
         <v>13</v>
       </c>
@@ -27514,7 +27520,7 @@
         <v>313.68</v>
       </c>
     </row>
-    <row r="791" spans="1:10" hidden="1">
+    <row r="791" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
         <v>91</v>
       </c>
@@ -27537,7 +27543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:10" hidden="1">
+    <row r="792" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
         <v>215</v>
       </c>
@@ -27560,7 +27566,7 @@
         <v>244.98</v>
       </c>
     </row>
-    <row r="793" spans="1:10" hidden="1">
+    <row r="793" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
         <v>142</v>
       </c>
@@ -27583,7 +27589,7 @@
         <v>102.42</v>
       </c>
     </row>
-    <row r="794" spans="1:10" hidden="1">
+    <row r="794" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
         <v>32</v>
       </c>
@@ -27609,7 +27615,7 @@
         <v>202.78</v>
       </c>
     </row>
-    <row r="795" spans="1:10" hidden="1">
+    <row r="795" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
         <v>16</v>
       </c>
@@ -27635,7 +27641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:10" hidden="1">
+    <row r="796" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
         <v>21</v>
       </c>
@@ -27658,7 +27664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:10" hidden="1">
+    <row r="797" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
         <v>16</v>
       </c>
@@ -27684,7 +27690,7 @@
         <v>258.68</v>
       </c>
     </row>
-    <row r="798" spans="1:10" hidden="1">
+    <row r="798" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
         <v>175</v>
       </c>
@@ -27707,7 +27713,7 @@
         <v>139.84</v>
       </c>
     </row>
-    <row r="799" spans="1:10" hidden="1">
+    <row r="799" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
         <v>68</v>
       </c>
@@ -27730,7 +27736,7 @@
         <v>252.87</v>
       </c>
     </row>
-    <row r="800" spans="1:10">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
         <v>39</v>
       </c>
@@ -27753,7 +27759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:10" hidden="1">
+    <row r="801" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
         <v>24</v>
       </c>
@@ -27776,7 +27782,7 @@
         <v>204.24</v>
       </c>
     </row>
-    <row r="802" spans="1:10" hidden="1">
+    <row r="802" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
         <v>62</v>
       </c>
@@ -27799,7 +27805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:10" hidden="1">
+    <row r="803" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
         <v>21</v>
       </c>
@@ -27825,7 +27831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:10" hidden="1">
+    <row r="804" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
         <v>62</v>
       </c>
@@ -27851,7 +27857,7 @@
         <v>702.9</v>
       </c>
     </row>
-    <row r="805" spans="1:10" hidden="1">
+    <row r="805" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
         <v>21</v>
       </c>
@@ -27877,7 +27883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:10" hidden="1">
+    <row r="806" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
         <v>21</v>
       </c>
@@ -27903,7 +27909,7 @@
         <v>156.56</v>
       </c>
     </row>
-    <row r="807" spans="1:10" hidden="1">
+    <row r="807" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
         <v>16</v>
       </c>
@@ -27929,7 +27935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:10" hidden="1">
+    <row r="808" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
         <v>10</v>
       </c>
@@ -27952,7 +27958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:10" hidden="1">
+    <row r="809" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
         <v>13</v>
       </c>
@@ -27978,7 +27984,7 @@
         <v>415.4</v>
       </c>
     </row>
-    <row r="810" spans="1:10" hidden="1">
+    <row r="810" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
         <v>215</v>
       </c>
@@ -28001,7 +28007,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="811" spans="1:10" hidden="1">
+    <row r="811" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
         <v>32</v>
       </c>
@@ -28024,7 +28030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:10" hidden="1">
+    <row r="812" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
         <v>162</v>
       </c>
@@ -28050,7 +28056,7 @@
         <v>27.28</v>
       </c>
     </row>
-    <row r="813" spans="1:10" hidden="1">
+    <row r="813" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
         <v>10</v>
       </c>
@@ -28076,7 +28082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:10" hidden="1">
+    <row r="814" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
         <v>142</v>
       </c>
@@ -28099,7 +28105,7 @@
         <v>242.54</v>
       </c>
     </row>
-    <row r="815" spans="1:10" hidden="1">
+    <row r="815" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
         <v>175</v>
       </c>
@@ -28125,7 +28131,7 @@
         <v>47.28</v>
       </c>
     </row>
-    <row r="816" spans="1:10" hidden="1">
+    <row r="816" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
         <v>16</v>
       </c>
@@ -28151,7 +28157,7 @@
         <v>593.86</v>
       </c>
     </row>
-    <row r="817" spans="1:10" hidden="1">
+    <row r="817" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
         <v>24</v>
       </c>
@@ -28171,7 +28177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:10" hidden="1">
+    <row r="818" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
         <v>21</v>
       </c>
@@ -28197,7 +28203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:10" hidden="1">
+    <row r="819" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
         <v>13</v>
       </c>
@@ -28220,7 +28226,7 @@
         <v>387.38</v>
       </c>
     </row>
-    <row r="820" spans="1:10" hidden="1">
+    <row r="820" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
         <v>24</v>
       </c>
@@ -28246,7 +28252,7 @@
         <v>53.42</v>
       </c>
     </row>
-    <row r="821" spans="1:10" hidden="1">
+    <row r="821" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
         <v>215</v>
       </c>
@@ -28272,7 +28278,7 @@
         <v>37.28</v>
       </c>
     </row>
-    <row r="822" spans="1:10" hidden="1">
+    <row r="822" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
         <v>215</v>
       </c>
@@ -28295,7 +28301,7 @@
         <v>548.17999999999995</v>
       </c>
     </row>
-    <row r="823" spans="1:10" hidden="1">
+    <row r="823" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
         <v>21</v>
       </c>
@@ -28318,7 +28324,7 @@
         <v>78.42</v>
       </c>
     </row>
-    <row r="824" spans="1:10" hidden="1">
+    <row r="824" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
         <v>175</v>
       </c>
@@ -28341,7 +28347,7 @@
         <v>13.84</v>
       </c>
     </row>
-    <row r="825" spans="1:10" hidden="1">
+    <row r="825" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
         <v>142</v>
       </c>
@@ -28364,7 +28370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:10">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
         <v>39</v>
       </c>
@@ -28390,7 +28396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:10" hidden="1">
+    <row r="827" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>10</v>
       </c>
@@ -28416,7 +28422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:10">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
         <v>39</v>
       </c>
@@ -28439,7 +28445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:10" hidden="1">
+    <row r="829" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
         <v>142</v>
       </c>
@@ -28465,7 +28471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:10" hidden="1">
+    <row r="830" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
         <v>13</v>
       </c>
@@ -28488,7 +28494,7 @@
         <v>507.68</v>
       </c>
     </row>
-    <row r="831" spans="1:10" hidden="1">
+    <row r="831" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>21</v>
       </c>
@@ -28511,7 +28517,7 @@
         <v>97.42</v>
       </c>
     </row>
-    <row r="832" spans="1:10" hidden="1">
+    <row r="832" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
         <v>10</v>
       </c>
@@ -28534,7 +28540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:10" hidden="1">
+    <row r="833" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
         <v>32</v>
       </c>
@@ -28557,7 +28563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:10" hidden="1">
+    <row r="834" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
         <v>175</v>
       </c>
@@ -28583,7 +28589,7 @@
         <v>223.83</v>
       </c>
     </row>
-    <row r="835" spans="1:10" hidden="1">
+    <row r="835" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
         <v>13</v>
       </c>
@@ -28606,7 +28612,7 @@
         <v>381.77</v>
       </c>
     </row>
-    <row r="836" spans="1:10" hidden="1">
+    <row r="836" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
         <v>180</v>
       </c>
@@ -28629,7 +28635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:10" hidden="1">
+    <row r="837" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
         <v>175</v>
       </c>
@@ -28655,7 +28661,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="838" spans="1:10" hidden="1">
+    <row r="838" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
         <v>13</v>
       </c>
@@ -28681,7 +28687,7 @@
         <v>166.04</v>
       </c>
     </row>
-    <row r="839" spans="1:10" hidden="1">
+    <row r="839" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
         <v>62</v>
       </c>
@@ -28704,7 +28710,7 @@
         <v>311.39999999999998</v>
       </c>
     </row>
-    <row r="840" spans="1:10" hidden="1">
+    <row r="840" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
         <v>21</v>
       </c>
@@ -28727,7 +28733,7 @@
         <v>180.2</v>
       </c>
     </row>
-    <row r="841" spans="1:10" hidden="1">
+    <row r="841" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
         <v>91</v>
       </c>
@@ -28753,7 +28759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:10" hidden="1">
+    <row r="842" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
         <v>153</v>
       </c>
@@ -28776,7 +28782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:10" hidden="1">
+    <row r="843" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
         <v>62</v>
       </c>
@@ -28802,7 +28808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:10" hidden="1">
+    <row r="844" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
         <v>21</v>
       </c>
@@ -28825,7 +28831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:10" hidden="1">
+    <row r="845" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
         <v>153</v>
       </c>
@@ -28851,7 +28857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:10" hidden="1">
+    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>175</v>
       </c>
@@ -28877,7 +28883,7 @@
         <v>101.42</v>
       </c>
     </row>
-    <row r="847" spans="1:10" hidden="1">
+    <row r="847" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
         <v>68</v>
       </c>
@@ -28903,7 +28909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:10">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
         <v>39</v>
       </c>
@@ -28926,7 +28932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:10" hidden="1">
+    <row r="849" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
         <v>68</v>
       </c>
@@ -28949,7 +28955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:10" hidden="1">
+    <row r="850" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
         <v>21</v>
       </c>
@@ -28972,7 +28978,7 @@
         <v>99.03</v>
       </c>
     </row>
-    <row r="851" spans="1:10" hidden="1">
+    <row r="851" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
         <v>215</v>
       </c>
@@ -28998,7 +29004,7 @@
         <v>214.9</v>
       </c>
     </row>
-    <row r="852" spans="1:10" hidden="1">
+    <row r="852" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
         <v>32</v>
       </c>
@@ -29024,7 +29030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:10" hidden="1">
+    <row r="853" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
         <v>180</v>
       </c>
@@ -29047,7 +29053,7 @@
         <v>95.34</v>
       </c>
     </row>
-    <row r="854" spans="1:10">
+    <row r="854" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
         <v>39</v>
       </c>
@@ -29070,7 +29076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:10" hidden="1">
+    <row r="855" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
         <v>24</v>
       </c>
@@ -29096,7 +29102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:10" hidden="1">
+    <row r="856" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
         <v>215</v>
       </c>
@@ -29119,7 +29125,7 @@
         <v>160.26</v>
       </c>
     </row>
-    <row r="857" spans="1:10" hidden="1">
+    <row r="857" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
         <v>16</v>
       </c>
@@ -29142,7 +29148,7 @@
         <v>570.85</v>
       </c>
     </row>
-    <row r="858" spans="1:10" hidden="1">
+    <row r="858" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
         <v>65</v>
       </c>
@@ -29165,7 +29171,7 @@
         <v>299.82</v>
       </c>
     </row>
-    <row r="859" spans="1:10" hidden="1">
+    <row r="859" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
         <v>21</v>
       </c>
@@ -29188,7 +29194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:10" hidden="1">
+    <row r="860" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
         <v>10</v>
       </c>
@@ -29214,7 +29220,7 @@
         <v>250.79</v>
       </c>
     </row>
-    <row r="861" spans="1:10" hidden="1">
+    <row r="861" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
         <v>13</v>
       </c>
@@ -29240,7 +29246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:10" hidden="1">
+    <row r="862" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
         <v>10</v>
       </c>
@@ -29266,7 +29272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:10" hidden="1">
+    <row r="863" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
         <v>24</v>
       </c>
@@ -29289,7 +29295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:10" hidden="1">
+    <row r="864" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
         <v>24</v>
       </c>
@@ -29315,7 +29321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:10" hidden="1">
+    <row r="865" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
         <v>175</v>
       </c>
@@ -29341,7 +29347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:10" hidden="1">
+    <row r="866" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
         <v>29</v>
       </c>
@@ -29367,7 +29373,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="867" spans="1:10" hidden="1">
+    <row r="867" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
         <v>21</v>
       </c>
@@ -29390,7 +29396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:10" hidden="1">
+    <row r="868" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
         <v>24</v>
       </c>
@@ -29416,7 +29422,7 @@
         <v>450.66</v>
       </c>
     </row>
-    <row r="869" spans="1:10" hidden="1">
+    <row r="869" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
         <v>215</v>
       </c>
@@ -29442,7 +29448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:10" hidden="1">
+    <row r="870" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
         <v>65</v>
       </c>
@@ -29465,7 +29471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:10" hidden="1">
+    <row r="871" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
         <v>142</v>
       </c>
@@ -29491,7 +29497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:10">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
         <v>39</v>
       </c>
@@ -29517,7 +29523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:10" hidden="1">
+    <row r="873" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
         <v>215</v>
       </c>
@@ -29543,7 +29549,7 @@
         <v>140.30000000000001</v>
       </c>
     </row>
-    <row r="874" spans="1:10" hidden="1">
+    <row r="874" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
         <v>215</v>
       </c>
@@ -29566,7 +29572,7 @@
         <v>322.67</v>
       </c>
     </row>
-    <row r="875" spans="1:10" hidden="1">
+    <row r="875" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
         <v>215</v>
       </c>
@@ -29589,7 +29595,7 @@
         <v>280.60000000000002</v>
       </c>
     </row>
-    <row r="876" spans="1:10">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
         <v>39</v>
       </c>
@@ -29615,7 +29621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:10" hidden="1">
+    <row r="877" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
         <v>215</v>
       </c>
@@ -29641,7 +29647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:10" hidden="1">
+    <row r="878" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
         <v>10</v>
       </c>
@@ -29667,7 +29673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:10" hidden="1">
+    <row r="879" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
         <v>10</v>
       </c>
@@ -29690,7 +29696,7 @@
         <v>203.5</v>
       </c>
     </row>
-    <row r="880" spans="1:10" hidden="1">
+    <row r="880" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
         <v>24</v>
       </c>
@@ -29716,7 +29722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:10" hidden="1">
+    <row r="881" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
         <v>142</v>
       </c>
@@ -29739,7 +29745,7 @@
         <v>129.62</v>
       </c>
     </row>
-    <row r="882" spans="1:10" hidden="1">
+    <row r="882" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
         <v>21</v>
       </c>
@@ -29762,7 +29768,7 @@
         <v>367.1</v>
       </c>
     </row>
-    <row r="883" spans="1:10" hidden="1">
+    <row r="883" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
         <v>13</v>
       </c>
@@ -29782,7 +29788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:10" hidden="1">
+    <row r="884" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
         <v>32</v>
       </c>
@@ -29805,7 +29811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:10" hidden="1">
+    <row r="885" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" s="4" t="s">
         <v>29</v>
       </c>
@@ -29828,7 +29834,7 @@
         <v>259.82</v>
       </c>
     </row>
-    <row r="886" spans="1:10" hidden="1">
+    <row r="886" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="4" t="s">
         <v>32</v>
       </c>
@@ -29854,7 +29860,7 @@
         <v>140.30000000000001</v>
       </c>
     </row>
-    <row r="887" spans="1:10" hidden="1">
+    <row r="887" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" s="4" t="s">
         <v>21</v>
       </c>
@@ -29880,7 +29886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:10" hidden="1">
+    <row r="888" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="4" t="s">
         <v>62</v>
       </c>
@@ -29906,7 +29912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:10" hidden="1">
+    <row r="889" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="4" t="s">
         <v>29</v>
       </c>
@@ -29932,7 +29938,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="890" spans="1:10" hidden="1">
+    <row r="890" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" s="4" t="s">
         <v>24</v>
       </c>
@@ -29958,7 +29964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:10" hidden="1">
+    <row r="891" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="4" t="s">
         <v>68</v>
       </c>
@@ -29981,7 +29987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:10" hidden="1">
+    <row r="892" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="4" t="s">
         <v>180</v>
       </c>
@@ -30007,7 +30013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:10" hidden="1">
+    <row r="893" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="4" t="s">
         <v>16</v>
       </c>
@@ -30033,7 +30039,7 @@
         <v>197.8</v>
       </c>
     </row>
-    <row r="894" spans="1:10" hidden="1">
+    <row r="894" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="4" t="s">
         <v>10</v>
       </c>
@@ -30059,7 +30065,7 @@
         <v>104.56</v>
       </c>
     </row>
-    <row r="895" spans="1:10" hidden="1">
+    <row r="895" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="4" t="s">
         <v>162</v>
       </c>
@@ -30085,7 +30091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:10" hidden="1">
+    <row r="896" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="4" t="s">
         <v>68</v>
       </c>
@@ -30111,7 +30117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:10" hidden="1">
+    <row r="897" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="4" t="s">
         <v>175</v>
       </c>
@@ -30137,7 +30143,7 @@
         <v>139.30000000000001</v>
       </c>
     </row>
-    <row r="898" spans="1:10" hidden="1">
+    <row r="898" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" s="4" t="s">
         <v>215</v>
       </c>
@@ -30160,7 +30166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:10" hidden="1">
+    <row r="899" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="4" t="s">
         <v>162</v>
       </c>
@@ -30186,7 +30192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:10" hidden="1">
+    <row r="900" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" s="4" t="s">
         <v>68</v>
       </c>
@@ -30212,7 +30218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:10" hidden="1">
+    <row r="901" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="4" t="s">
         <v>29</v>
       </c>
@@ -30235,7 +30241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:10" hidden="1">
+    <row r="902" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="4" t="s">
         <v>91</v>
       </c>
@@ -30258,7 +30264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:10" hidden="1">
+    <row r="903" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="4" t="s">
         <v>24</v>
       </c>
@@ -30281,7 +30287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:10" hidden="1">
+    <row r="904" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" s="4" t="s">
         <v>68</v>
       </c>
@@ -30304,7 +30310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:10" hidden="1">
+    <row r="905" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="4" t="s">
         <v>16</v>
       </c>
@@ -30327,7 +30333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:10" hidden="1">
+    <row r="906" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="4" t="s">
         <v>29</v>
       </c>
@@ -30353,7 +30359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:10" hidden="1">
+    <row r="907" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="4" t="s">
         <v>215</v>
       </c>
@@ -30376,7 +30382,7 @@
         <v>164.12</v>
       </c>
     </row>
-    <row r="908" spans="1:10" hidden="1">
+    <row r="908" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="4" t="s">
         <v>175</v>
       </c>
@@ -30399,7 +30405,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="909" spans="1:10" hidden="1">
+    <row r="909" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="4" t="s">
         <v>175</v>
       </c>
@@ -30425,7 +30431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:10" hidden="1">
+    <row r="910" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" s="4" t="s">
         <v>175</v>
       </c>
@@ -30448,7 +30454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:10" hidden="1">
+    <row r="911" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" s="4" t="s">
         <v>10</v>
       </c>
@@ -30474,7 +30480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:10" hidden="1">
+    <row r="912" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" s="4" t="s">
         <v>62</v>
       </c>
@@ -30497,7 +30503,7 @@
         <v>73.42</v>
       </c>
     </row>
-    <row r="913" spans="1:10">
+    <row r="913" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A913" s="4" t="s">
         <v>39</v>
       </c>
@@ -30520,7 +30526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:10" hidden="1">
+    <row r="914" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="4" t="s">
         <v>180</v>
       </c>
@@ -30546,7 +30552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:10" hidden="1">
+    <row r="915" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="4" t="s">
         <v>215</v>
       </c>
@@ -30569,7 +30575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:10" hidden="1">
+    <row r="916" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="4" t="s">
         <v>21</v>
       </c>
@@ -30595,7 +30601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:10" hidden="1">
+    <row r="917" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="4" t="s">
         <v>62</v>
       </c>
@@ -30618,7 +30624,7 @@
         <v>153.69999999999999</v>
       </c>
     </row>
-    <row r="918" spans="1:10" hidden="1">
+    <row r="918" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" s="4" t="s">
         <v>13</v>
       </c>
@@ -30641,7 +30647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:10" hidden="1">
+    <row r="919" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" s="4" t="s">
         <v>21</v>
       </c>
@@ -30667,7 +30673,7 @@
         <v>48.28</v>
       </c>
     </row>
-    <row r="920" spans="1:10" hidden="1">
+    <row r="920" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" s="4" t="s">
         <v>62</v>
       </c>
@@ -30690,7 +30696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:10" hidden="1">
+    <row r="921" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" s="4" t="s">
         <v>62</v>
       </c>
@@ -30716,7 +30722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:10">
+    <row r="922" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A922" s="4" t="s">
         <v>39</v>
       </c>
@@ -30739,7 +30745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:10" hidden="1">
+    <row r="923" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" s="4" t="s">
         <v>62</v>
       </c>
@@ -30765,7 +30771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:10" hidden="1">
+    <row r="924" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" s="4" t="s">
         <v>32</v>
       </c>
@@ -30788,7 +30794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:10" hidden="1">
+    <row r="925" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" s="4" t="s">
         <v>68</v>
       </c>
@@ -30811,7 +30817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:10" hidden="1">
+    <row r="926" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" s="4" t="s">
         <v>68</v>
       </c>
@@ -30834,7 +30840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:10" hidden="1">
+    <row r="927" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" s="4" t="s">
         <v>215</v>
       </c>
@@ -30857,7 +30863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:10" hidden="1">
+    <row r="928" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="4" t="s">
         <v>21</v>
       </c>
@@ -30880,7 +30886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:10" hidden="1">
+    <row r="929" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" s="4" t="s">
         <v>32</v>
       </c>
@@ -30903,7 +30909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:10" hidden="1">
+    <row r="930" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" s="4" t="s">
         <v>10</v>
       </c>
@@ -30926,7 +30932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:10" hidden="1">
+    <row r="931" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" s="4" t="s">
         <v>162</v>
       </c>
@@ -30952,7 +30958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:10" hidden="1">
+    <row r="932" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" s="4" t="s">
         <v>21</v>
       </c>
@@ -30978,7 +30984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:10" hidden="1">
+    <row r="933" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" s="4" t="s">
         <v>68</v>
       </c>
@@ -31001,7 +31007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:10" hidden="1">
+    <row r="934" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" s="4" t="s">
         <v>62</v>
       </c>
@@ -31024,7 +31030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:10" hidden="1">
+    <row r="935" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" s="4" t="s">
         <v>32</v>
       </c>
@@ -31047,7 +31053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:10" hidden="1">
+    <row r="936" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" s="4" t="s">
         <v>24</v>
       </c>
@@ -31070,7 +31076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="937" spans="1:10" hidden="1">
+    <row r="937" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" s="4" t="s">
         <v>29</v>
       </c>
@@ -31090,7 +31096,7 @@
         <v>98.42</v>
       </c>
     </row>
-    <row r="938" spans="1:10" hidden="1">
+    <row r="938" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" s="4" t="s">
         <v>65</v>
       </c>
@@ -31113,7 +31119,7 @@
         <v>53.42</v>
       </c>
     </row>
-    <row r="939" spans="1:10" hidden="1">
+    <row r="939" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" s="4" t="s">
         <v>13</v>
       </c>
@@ -31136,7 +31142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:10">
+    <row r="940" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A940" s="4" t="s">
         <v>39</v>
       </c>
@@ -31159,7 +31165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:10" hidden="1">
+    <row r="941" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" s="4" t="s">
         <v>21</v>
       </c>
@@ -31182,7 +31188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:10" hidden="1">
+    <row r="942" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" s="4" t="s">
         <v>21</v>
       </c>
@@ -31205,7 +31211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:10" hidden="1">
+    <row r="943" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" s="4" t="s">
         <v>21</v>
       </c>
@@ -31231,7 +31237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:10">
+    <row r="944" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A944" s="4" t="s">
         <v>39</v>
       </c>
@@ -31254,7 +31260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:10" hidden="1">
+    <row r="945" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" s="4" t="s">
         <v>91</v>
       </c>
@@ -31277,7 +31283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:10">
+    <row r="946" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A946" s="4" t="s">
         <v>39</v>
       </c>
@@ -31300,7 +31306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:10" hidden="1">
+    <row r="947" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="4" t="s">
         <v>16</v>
       </c>
@@ -31323,7 +31329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:10" hidden="1">
+    <row r="948" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" s="4" t="s">
         <v>215</v>
       </c>
@@ -31346,7 +31352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:10" hidden="1">
+    <row r="949" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" s="4" t="s">
         <v>68</v>
       </c>
@@ -31369,7 +31375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:10" hidden="1">
+    <row r="950" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" s="4" t="s">
         <v>68</v>
       </c>
@@ -31392,7 +31398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:10" hidden="1">
+    <row r="951" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" s="4" t="s">
         <v>10</v>
       </c>
@@ -31415,7 +31421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:10" hidden="1">
+    <row r="952" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" s="4" t="s">
         <v>175</v>
       </c>
@@ -31438,7 +31444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:10" hidden="1">
+    <row r="953" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" s="4" t="s">
         <v>65</v>
       </c>
@@ -31461,7 +31467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:10" hidden="1">
+    <row r="954" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" s="4" t="s">
         <v>13</v>
       </c>
@@ -31484,7 +31490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:10">
+    <row r="955" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A955" s="4" t="s">
         <v>39</v>
       </c>
@@ -31507,7 +31513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:10" hidden="1">
+    <row r="956" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" s="4" t="s">
         <v>153</v>
       </c>
@@ -31527,7 +31533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:10" hidden="1">
+    <row r="957" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" s="4" t="s">
         <v>153</v>
       </c>
@@ -31547,7 +31553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:10" hidden="1">
+    <row r="958" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" s="4" t="s">
         <v>153</v>
       </c>
@@ -31567,7 +31573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:10" hidden="1">
+    <row r="959" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="4" t="s">
         <v>153</v>
       </c>
@@ -31587,7 +31593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:10" hidden="1">
+    <row r="960" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="4" t="s">
         <v>62</v>
       </c>
@@ -31607,7 +31613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:10" hidden="1">
+    <row r="961" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" s="4" t="s">
         <v>62</v>
       </c>
@@ -31627,7 +31633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:10" hidden="1">
+    <row r="962" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" s="4" t="s">
         <v>62</v>
       </c>
@@ -31647,7 +31653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:10" hidden="1">
+    <row r="963" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="4" t="s">
         <v>62</v>
       </c>
@@ -31667,7 +31673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:10" hidden="1">
+    <row r="964" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" s="4" t="s">
         <v>62</v>
       </c>
@@ -31687,7 +31693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:10" hidden="1">
+    <row r="965" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="4" t="s">
         <v>62</v>
       </c>
@@ -31707,7 +31713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:10" hidden="1">
+    <row r="966" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="4" t="s">
         <v>62</v>
       </c>
@@ -31727,7 +31733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:10">
+    <row r="967" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A967" s="4" t="s">
         <v>39</v>
       </c>
@@ -31747,7 +31753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:10">
+    <row r="968" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A968" s="4" t="s">
         <v>39</v>
       </c>
@@ -31767,7 +31773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:10" hidden="1">
+    <row r="969" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" s="4" t="s">
         <v>16</v>
       </c>
@@ -31787,7 +31793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:10" hidden="1">
+    <row r="970" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" s="4" t="s">
         <v>16</v>
       </c>
@@ -31807,7 +31813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:10" hidden="1">
+    <row r="971" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" s="4" t="s">
         <v>16</v>
       </c>
@@ -31827,7 +31833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:10" hidden="1">
+    <row r="972" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" s="4" t="s">
         <v>16</v>
       </c>
@@ -31847,7 +31853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:10" hidden="1">
+    <row r="973" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" s="4" t="s">
         <v>16</v>
       </c>
@@ -31867,7 +31873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:10" hidden="1">
+    <row r="974" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" s="4" t="s">
         <v>215</v>
       </c>
@@ -31887,7 +31893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:10" hidden="1">
+    <row r="975" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" s="4" t="s">
         <v>215</v>
       </c>
@@ -31907,7 +31913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:10" hidden="1">
+    <row r="976" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" s="4" t="s">
         <v>215</v>
       </c>
@@ -31927,7 +31933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:10" hidden="1">
+    <row r="977" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" s="4" t="s">
         <v>215</v>
       </c>
@@ -31947,7 +31953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:10" hidden="1">
+    <row r="978" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" s="4" t="s">
         <v>24</v>
       </c>
@@ -31967,7 +31973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:10" hidden="1">
+    <row r="979" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" s="4" t="s">
         <v>24</v>
       </c>
@@ -31987,7 +31993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:10" hidden="1">
+    <row r="980" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" s="4" t="s">
         <v>24</v>
       </c>
@@ -32007,7 +32013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:10" hidden="1">
+    <row r="981" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" s="4" t="s">
         <v>24</v>
       </c>
@@ -32027,7 +32033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:10" hidden="1">
+    <row r="982" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" s="4" t="s">
         <v>142</v>
       </c>
@@ -32047,7 +32053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:10" hidden="1">
+    <row r="983" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" s="4" t="s">
         <v>142</v>
       </c>
@@ -32067,7 +32073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:10" hidden="1">
+    <row r="984" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A984" s="4" t="s">
         <v>21</v>
       </c>
@@ -32087,7 +32093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:10" hidden="1">
+    <row r="985" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" s="4" t="s">
         <v>21</v>
       </c>
@@ -32107,7 +32113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:10" hidden="1">
+    <row r="986" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A986" s="4" t="s">
         <v>21</v>
       </c>
@@ -32127,7 +32133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:10" hidden="1">
+    <row r="987" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A987" s="4" t="s">
         <v>21</v>
       </c>
@@ -32147,7 +32153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:10" hidden="1">
+    <row r="988" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A988" s="4" t="s">
         <v>21</v>
       </c>
@@ -32167,7 +32173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:10" hidden="1">
+    <row r="989" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A989" s="4" t="s">
         <v>21</v>
       </c>
@@ -32187,7 +32193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:10" hidden="1">
+    <row r="990" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A990" s="4" t="s">
         <v>21</v>
       </c>
@@ -32207,7 +32213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:10" hidden="1">
+    <row r="991" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991" s="4" t="s">
         <v>21</v>
       </c>
@@ -32227,7 +32233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:10" hidden="1">
+    <row r="992" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992" s="4" t="s">
         <v>21</v>
       </c>
@@ -32247,7 +32253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:10" hidden="1">
+    <row r="993" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" s="4" t="s">
         <v>65</v>
       </c>
@@ -32267,7 +32273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:10" hidden="1">
+    <row r="994" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A994" s="4" t="s">
         <v>65</v>
       </c>
@@ -32287,7 +32293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:10" hidden="1">
+    <row r="995" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A995" s="4" t="s">
         <v>65</v>
       </c>
@@ -32307,7 +32313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:10" hidden="1">
+    <row r="996" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996" s="4" t="s">
         <v>13</v>
       </c>
@@ -32327,7 +32333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:10" hidden="1">
+    <row r="997" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997" s="4" t="s">
         <v>13</v>
       </c>
@@ -32347,7 +32353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:10" hidden="1">
+    <row r="998" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998" s="4" t="s">
         <v>13</v>
       </c>
@@ -32367,7 +32373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:10" hidden="1">
+    <row r="999" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A999" s="4" t="s">
         <v>13</v>
       </c>
@@ -32387,7 +32393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:10" hidden="1">
+    <row r="1000" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="4" t="s">
         <v>13</v>
       </c>
@@ -32407,7 +32413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:10" hidden="1">
+    <row r="1001" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="4" t="s">
         <v>13</v>
       </c>
@@ -32427,7 +32433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:10" hidden="1">
+    <row r="1002" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="4" t="s">
         <v>180</v>
       </c>
@@ -32447,7 +32453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:10" hidden="1">
+    <row r="1003" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="4" t="s">
         <v>32</v>
       </c>
@@ -32467,7 +32473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:10" hidden="1">
+    <row r="1004" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="4" t="s">
         <v>32</v>
       </c>
@@ -32487,7 +32493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:10" hidden="1">
+    <row r="1005" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="4" t="s">
         <v>32</v>
       </c>
@@ -32507,7 +32513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:10" hidden="1">
+    <row r="1006" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="4" t="s">
         <v>32</v>
       </c>
@@ -32527,7 +32533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:10" hidden="1">
+    <row r="1007" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="4" t="s">
         <v>32</v>
       </c>
@@ -32547,7 +32553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:10" hidden="1">
+    <row r="1008" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1008" s="4" t="s">
         <v>32</v>
       </c>
@@ -32567,7 +32573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:10" hidden="1">
+    <row r="1009" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="4" t="s">
         <v>32</v>
       </c>
@@ -32587,7 +32593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:10" hidden="1">
+    <row r="1010" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="4" t="s">
         <v>32</v>
       </c>
@@ -32607,7 +32613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:10" hidden="1">
+    <row r="1011" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="4" t="s">
         <v>32</v>
       </c>
@@ -32627,7 +32633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1012" spans="1:10" hidden="1">
+    <row r="1012" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="4" t="s">
         <v>32</v>
       </c>
@@ -32647,7 +32653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1013" spans="1:10" hidden="1">
+    <row r="1013" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="4" t="s">
         <v>162</v>
       </c>
@@ -32667,7 +32673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:10" hidden="1">
+    <row r="1014" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="4" t="s">
         <v>162</v>
       </c>
@@ -32687,7 +32693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:10" hidden="1">
+    <row r="1015" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="4" t="s">
         <v>10</v>
       </c>
@@ -32707,7 +32713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:10" hidden="1">
+    <row r="1016" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="4" t="s">
         <v>10</v>
       </c>
@@ -32727,7 +32733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1017" spans="1:10" hidden="1">
+    <row r="1017" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="4" t="s">
         <v>10</v>
       </c>
@@ -32747,7 +32753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="1:10" hidden="1">
+    <row r="1018" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1018" s="4" t="s">
         <v>68</v>
       </c>
@@ -32767,7 +32773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1019" spans="1:10" hidden="1">
+    <row r="1019" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1019" s="4" t="s">
         <v>68</v>
       </c>
@@ -32787,7 +32793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:10" hidden="1">
+    <row r="1020" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="4" t="s">
         <v>29</v>
       </c>
@@ -32807,7 +32813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:10" hidden="1">
+    <row r="1021" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1021" s="4" t="s">
         <v>91</v>
       </c>
